--- a/GoodInfo_StockList_20211118.xlsx
+++ b/GoodInfo_StockList_20211118.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20380"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RayWu\OneDrive - AAEON Technology\_OLD\Documents\Python\TradingModel_GoodInfo_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ray\Documents\Python\GoodInfo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="8_{0F25DD6E-8511-4B87-8368-006AED36EF9A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{74ED9CF8-F809-42C1-9886-653435335297}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
   <si>
     <t>名稱</t>
   </si>
@@ -65,9 +64,6 @@
   </si>
   <si>
     <t>長榮航</t>
-  </si>
-  <si>
-    <t>國票金</t>
   </si>
   <si>
     <t>健和興</t>
@@ -286,13 +282,29 @@
   </si>
   <si>
     <t>大量_3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大量_小計</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>v</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -671,2331 +683,2492 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S14" sqref="S14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="8" width="19.625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="7" max="7" width="8.625" customWidth="1"/>
+    <col min="8" max="8" width="8.25" customWidth="1"/>
+    <col min="9" max="9" width="8.875" customWidth="1"/>
+    <col min="10" max="10" width="10.25" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="9.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B2">
-        <v>8069</v>
+        <v>6118</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="D2">
-        <v>106.5</v>
+        <v>28.4</v>
       </c>
       <c r="E2">
-        <v>9.7899999999999991</v>
+        <v>-1.39</v>
       </c>
       <c r="F2">
-        <v>14.5</v>
+        <v>6.57</v>
       </c>
       <c r="G2">
-        <v>14.6</v>
+        <v>-0.18</v>
       </c>
       <c r="H2">
-        <v>16.600000000000001</v>
+        <v>20.6</v>
       </c>
       <c r="I2">
-        <v>17.5</v>
+        <v>88.1</v>
       </c>
       <c r="J2">
-        <v>29.9</v>
+        <v>101</v>
       </c>
       <c r="K2">
-        <v>45.9</v>
+        <v>127</v>
       </c>
       <c r="L2">
-        <v>85.2</v>
+        <v>122</v>
       </c>
       <c r="M2">
-        <v>167</v>
+        <v>178</v>
+      </c>
+      <c r="N2">
+        <v>4</v>
       </c>
       <c r="O2">
-        <v>0.7</v>
+        <v>3.12</v>
       </c>
       <c r="R2">
         <f>O2+P2+Q2</f>
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B3">
-        <v>5351</v>
+        <v>2610</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>91.5</v>
+        <v>28.35</v>
       </c>
       <c r="E3">
-        <v>1.55</v>
+        <v>-2.2400000000000002</v>
       </c>
       <c r="F3">
-        <v>1.67</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="G3">
-        <v>11.6</v>
+        <v>7.39</v>
       </c>
       <c r="H3">
-        <v>20.100000000000001</v>
+        <v>11.8</v>
       </c>
       <c r="I3">
-        <v>22</v>
+        <v>47.7</v>
       </c>
       <c r="J3">
-        <v>109</v>
+        <v>67.8</v>
       </c>
       <c r="K3">
-        <v>130</v>
+        <v>69.8</v>
       </c>
       <c r="L3">
-        <v>329</v>
+        <v>87.7</v>
       </c>
       <c r="M3">
-        <v>456</v>
+        <v>207</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
       </c>
       <c r="O3">
-        <v>1.1000000000000001</v>
+        <v>3.37</v>
       </c>
       <c r="R3">
         <f>O3+P3+Q3</f>
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="B4">
-        <v>8103</v>
+        <v>3491</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D4">
-        <v>52.3</v>
+        <v>171</v>
       </c>
       <c r="E4">
-        <v>3.77</v>
+        <v>-4.47</v>
       </c>
       <c r="F4">
-        <v>6.09</v>
+        <v>-5</v>
       </c>
       <c r="G4">
-        <v>4.18</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="H4">
-        <v>6.3</v>
+        <v>10.7</v>
       </c>
       <c r="I4">
-        <v>3.98</v>
+        <v>17.899999999999999</v>
       </c>
       <c r="J4">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="K4">
-        <v>25</v>
+        <v>150</v>
       </c>
       <c r="L4">
-        <v>46.1</v>
+        <v>172</v>
       </c>
       <c r="M4">
-        <v>67.400000000000006</v>
+        <v>141</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>1.67</v>
+        <v>4.68</v>
+      </c>
+      <c r="P4">
+        <v>10.01</v>
       </c>
       <c r="R4">
         <f>O4+P4+Q4</f>
-        <v>1.67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+        <v>14.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>1709</v>
+        <v>8069</v>
       </c>
       <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5">
+        <v>106.5</v>
+      </c>
+      <c r="E5">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="F5">
+        <v>14.5</v>
+      </c>
+      <c r="G5">
+        <v>14.6</v>
+      </c>
+      <c r="H5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I5">
+        <v>17.5</v>
+      </c>
+      <c r="J5">
+        <v>29.9</v>
+      </c>
+      <c r="K5">
+        <v>45.9</v>
+      </c>
+      <c r="L5">
+        <v>85.2</v>
+      </c>
+      <c r="M5">
+        <v>167</v>
+      </c>
+      <c r="N5">
         <v>3</v>
       </c>
-      <c r="D5">
-        <v>24.25</v>
-      </c>
-      <c r="E5">
-        <v>1.04</v>
-      </c>
-      <c r="F5">
-        <v>6.36</v>
-      </c>
-      <c r="G5">
-        <v>6.36</v>
-      </c>
-      <c r="H5">
-        <v>9.48</v>
-      </c>
-      <c r="I5">
-        <v>18.899999999999999</v>
-      </c>
-      <c r="J5">
-        <v>11.5</v>
-      </c>
-      <c r="K5">
-        <v>21.9</v>
-      </c>
-      <c r="L5">
-        <v>39</v>
-      </c>
-      <c r="M5">
-        <v>68.400000000000006</v>
-      </c>
       <c r="O5">
-        <v>2.2400000000000002</v>
+        <v>0.7</v>
       </c>
       <c r="R5">
         <f>O5+P5+Q5</f>
-        <v>2.2400000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+      <c r="S5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="B6">
-        <v>8289</v>
+        <v>5351</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="D6">
-        <v>37.6</v>
+        <v>91.5</v>
       </c>
       <c r="E6">
-        <v>-2.72</v>
+        <v>1.55</v>
       </c>
       <c r="F6">
-        <v>1.76</v>
+        <v>1.67</v>
       </c>
       <c r="G6">
-        <v>4.16</v>
+        <v>11.6</v>
       </c>
       <c r="H6">
-        <v>15.5</v>
+        <v>20.100000000000001</v>
       </c>
       <c r="I6">
-        <v>22.5</v>
+        <v>22</v>
       </c>
       <c r="J6">
-        <v>22.3</v>
+        <v>109</v>
       </c>
       <c r="K6">
-        <v>32.4</v>
+        <v>130</v>
       </c>
       <c r="L6">
-        <v>131</v>
+        <v>329</v>
       </c>
       <c r="M6">
-        <v>230</v>
+        <v>456</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
       </c>
       <c r="O6">
-        <v>2.2999999999999998</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="R6">
         <f>O6+P6+Q6</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>55</v>
+      </c>
+      <c r="B7">
+        <v>8289</v>
+      </c>
+      <c r="C7" t="s">
+        <v>52</v>
+      </c>
+      <c r="D7">
+        <v>37.6</v>
+      </c>
+      <c r="E7">
+        <v>-2.72</v>
+      </c>
+      <c r="F7">
+        <v>1.76</v>
+      </c>
+      <c r="G7">
+        <v>4.16</v>
+      </c>
+      <c r="H7">
+        <v>15.5</v>
+      </c>
+      <c r="I7">
+        <v>22.5</v>
+      </c>
+      <c r="J7">
+        <v>22.3</v>
+      </c>
+      <c r="K7">
+        <v>32.4</v>
+      </c>
+      <c r="L7">
+        <v>131</v>
+      </c>
+      <c r="M7">
+        <v>230</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
         <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43</v>
-      </c>
-      <c r="B7">
-        <v>6265</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7">
-        <v>12.95</v>
-      </c>
-      <c r="E7">
-        <v>9.75</v>
-      </c>
-      <c r="F7">
-        <v>5.28</v>
-      </c>
-      <c r="G7">
-        <v>15.1</v>
-      </c>
-      <c r="H7">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="I7">
-        <v>15.1</v>
-      </c>
-      <c r="J7">
-        <v>21</v>
-      </c>
-      <c r="K7">
-        <v>29.8</v>
-      </c>
-      <c r="L7">
-        <v>68.400000000000006</v>
-      </c>
-      <c r="M7">
-        <v>93.9</v>
-      </c>
-      <c r="O7">
-        <v>2.76</v>
       </c>
       <c r="R7">
         <f>O7+P7+Q7</f>
-        <v>2.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="S7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8">
-        <v>6118</v>
+        <v>6138</v>
       </c>
       <c r="C8" t="s">
         <v>36</v>
       </c>
       <c r="D8">
-        <v>28.4</v>
+        <v>238.5</v>
       </c>
       <c r="E8">
-        <v>-1.39</v>
+        <v>2.14</v>
       </c>
       <c r="F8">
-        <v>6.57</v>
+        <v>11.2</v>
       </c>
       <c r="G8">
-        <v>-0.18</v>
+        <v>12</v>
       </c>
       <c r="H8">
-        <v>20.6</v>
+        <v>30.3</v>
       </c>
       <c r="I8">
-        <v>88.1</v>
+        <v>35.5</v>
       </c>
       <c r="J8">
-        <v>101</v>
+        <v>39.1</v>
       </c>
       <c r="K8">
-        <v>127</v>
+        <v>65.599999999999994</v>
       </c>
       <c r="L8">
-        <v>122</v>
+        <v>97.1</v>
       </c>
       <c r="M8">
-        <v>178</v>
+        <v>188</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>3.12</v>
+        <v>3.45</v>
       </c>
       <c r="R8">
         <f>O8+P8+Q8</f>
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.45</v>
+      </c>
+      <c r="S8" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="B9">
-        <v>2527</v>
+        <v>6104</v>
       </c>
       <c r="C9" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="D9">
-        <v>34.85</v>
+        <v>190</v>
       </c>
       <c r="E9">
-        <v>1.9</v>
+        <v>-1.55</v>
       </c>
       <c r="F9">
-        <v>6.09</v>
+        <v>6.15</v>
       </c>
       <c r="G9">
-        <v>13.7</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="H9">
-        <v>12.1</v>
+        <v>14.1</v>
       </c>
       <c r="I9">
-        <v>12.8</v>
+        <v>40.200000000000003</v>
       </c>
       <c r="J9">
-        <v>11.3</v>
+        <v>44.5</v>
       </c>
       <c r="K9">
-        <v>25.1</v>
+        <v>87.2</v>
       </c>
       <c r="L9">
-        <v>53.5</v>
+        <v>252</v>
       </c>
       <c r="M9">
-        <v>90.4</v>
+        <v>152</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>3.16</v>
+        <v>3.65</v>
       </c>
       <c r="R9">
         <f>O9+P9+Q9</f>
-        <v>3.16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.65</v>
+      </c>
+      <c r="S9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>2610</v>
+        <v>2340</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>28.35</v>
+        <v>50.9</v>
       </c>
       <c r="E10">
-        <v>-2.2400000000000002</v>
+        <v>3.98</v>
       </c>
       <c r="F10">
-        <v>4.6100000000000003</v>
+        <v>14.4</v>
       </c>
       <c r="G10">
-        <v>7.39</v>
+        <v>13.1</v>
       </c>
       <c r="H10">
-        <v>11.8</v>
+        <v>21.5</v>
       </c>
       <c r="I10">
-        <v>47.7</v>
+        <v>15.6</v>
       </c>
       <c r="J10">
-        <v>67.8</v>
+        <v>58.6</v>
       </c>
       <c r="K10">
-        <v>69.8</v>
+        <v>66.3</v>
       </c>
       <c r="L10">
-        <v>87.7</v>
+        <v>110</v>
       </c>
       <c r="M10">
-        <v>207</v>
+        <v>99.2</v>
+      </c>
+      <c r="N10">
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>3.37</v>
+        <v>3.84</v>
       </c>
       <c r="R10">
         <f>O10+P10+Q10</f>
-        <v>3.37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.84</v>
+      </c>
+      <c r="S10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>1810</v>
+        <v>2484</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D11">
-        <v>16.75</v>
+        <v>42.6</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="F11">
-        <v>9.84</v>
+        <v>2.4</v>
       </c>
       <c r="G11">
-        <v>15.9</v>
+        <v>9.94</v>
       </c>
       <c r="H11">
-        <v>11.3</v>
+        <v>23.7</v>
       </c>
       <c r="I11">
-        <v>14.3</v>
+        <v>26.4</v>
       </c>
       <c r="J11">
-        <v>28.8</v>
+        <v>33.5</v>
       </c>
       <c r="K11">
-        <v>60.3</v>
+        <v>26.4</v>
       </c>
       <c r="L11">
-        <v>61.1</v>
+        <v>68</v>
       </c>
       <c r="M11">
-        <v>83.1</v>
+        <v>102</v>
+      </c>
+      <c r="N11">
+        <v>3</v>
       </c>
       <c r="O11">
-        <v>3.39</v>
+        <v>3.84</v>
       </c>
       <c r="R11">
         <f>O11+P11+Q11</f>
-        <v>3.39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.84</v>
+      </c>
+      <c r="S11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="B12">
-        <v>6138</v>
+        <v>8182</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D12">
-        <v>238.5</v>
+        <v>60</v>
       </c>
       <c r="E12">
-        <v>2.14</v>
+        <v>-1.48</v>
       </c>
       <c r="F12">
-        <v>11.2</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="G12">
-        <v>12</v>
+        <v>13.4</v>
       </c>
       <c r="H12">
-        <v>30.3</v>
+        <v>21.6</v>
       </c>
       <c r="I12">
-        <v>35.5</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="J12">
-        <v>39.1</v>
+        <v>40.5</v>
       </c>
       <c r="K12">
-        <v>65.599999999999994</v>
+        <v>38.700000000000003</v>
       </c>
       <c r="L12">
-        <v>97.1</v>
+        <v>94.5</v>
       </c>
       <c r="M12">
-        <v>188</v>
+        <v>115</v>
+      </c>
+      <c r="N12">
+        <v>3</v>
       </c>
       <c r="O12">
-        <v>3.45</v>
+        <v>2.44</v>
+      </c>
+      <c r="P12">
+        <v>3.44</v>
       </c>
       <c r="R12">
         <f>O12+P12+Q12</f>
-        <v>3.45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13">
+        <v>2436</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>104</v>
+      </c>
+      <c r="E13">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="F13">
+        <v>-5.45</v>
+      </c>
+      <c r="G13">
+        <v>-3.7</v>
+      </c>
+      <c r="H13">
+        <v>11.3</v>
+      </c>
+      <c r="I13">
+        <v>29.2</v>
+      </c>
+      <c r="J13">
         <v>37</v>
       </c>
-      <c r="B13">
-        <v>6104</v>
-      </c>
-      <c r="C13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>190</v>
-      </c>
-      <c r="E13">
-        <v>-1.55</v>
-      </c>
-      <c r="F13">
-        <v>6.15</v>
-      </c>
-      <c r="G13">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="H13">
-        <v>14.1</v>
-      </c>
-      <c r="I13">
-        <v>40.200000000000003</v>
-      </c>
-      <c r="J13">
-        <v>44.5</v>
-      </c>
       <c r="K13">
-        <v>87.2</v>
+        <v>52.7</v>
       </c>
       <c r="L13">
-        <v>252</v>
+        <v>86.4</v>
       </c>
       <c r="M13">
-        <v>152</v>
+        <v>217</v>
+      </c>
+      <c r="N13">
+        <v>3</v>
       </c>
       <c r="O13">
-        <v>3.65</v>
+        <v>2.36</v>
+      </c>
+      <c r="P13">
+        <v>4.42</v>
       </c>
       <c r="R13">
         <f>O13+P13+Q13</f>
-        <v>3.65</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+        <v>6.7799999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>2340</v>
+        <v>3016</v>
       </c>
       <c r="C14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>50.9</v>
+        <v>130</v>
       </c>
       <c r="E14">
-        <v>3.98</v>
+        <v>1.96</v>
       </c>
       <c r="F14">
-        <v>14.4</v>
+        <v>12.1</v>
       </c>
       <c r="G14">
-        <v>13.1</v>
+        <v>23.2</v>
       </c>
       <c r="H14">
-        <v>21.5</v>
+        <v>32.700000000000003</v>
       </c>
       <c r="I14">
-        <v>15.6</v>
+        <v>27.5</v>
       </c>
       <c r="J14">
-        <v>58.6</v>
+        <v>39.5</v>
       </c>
       <c r="K14">
-        <v>66.3</v>
+        <v>66.5</v>
       </c>
       <c r="L14">
         <v>110</v>
       </c>
       <c r="M14">
-        <v>99.2</v>
+        <v>110</v>
+      </c>
+      <c r="N14">
+        <v>3</v>
       </c>
       <c r="O14">
-        <v>3.84</v>
+        <v>8</v>
       </c>
       <c r="R14">
         <f>O14+P14+Q14</f>
-        <v>3.84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="S14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="B15">
-        <v>2314</v>
+        <v>3588</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>90.7</v>
+        <v>158</v>
       </c>
       <c r="E15">
-        <v>-4.53</v>
+        <v>-6.51</v>
       </c>
       <c r="F15">
-        <v>2.25</v>
+        <v>-5.39</v>
       </c>
       <c r="G15">
-        <v>12.4</v>
+        <v>-3.07</v>
       </c>
       <c r="H15">
-        <v>16</v>
+        <v>2.93</v>
       </c>
       <c r="I15">
-        <v>23.1</v>
+        <v>15.8</v>
       </c>
       <c r="J15">
-        <v>29.6</v>
+        <v>32.200000000000003</v>
       </c>
       <c r="K15">
-        <v>78.5</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="L15">
-        <v>183</v>
+        <v>155</v>
       </c>
       <c r="M15">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="N15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O15">
-        <v>1.73</v>
+        <v>3.16</v>
       </c>
       <c r="P15">
-        <v>2.42</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="R15">
         <f>O15+P15+Q15</f>
-        <v>4.1500000000000004</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+        <v>8.18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>3515</v>
+        <v>3062</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D16">
-        <v>248</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="E16">
-        <v>-4.0599999999999996</v>
+        <v>-1.98</v>
       </c>
       <c r="F16">
-        <v>5.53</v>
+        <v>-0.28999999999999998</v>
       </c>
       <c r="G16">
-        <v>3.77</v>
+        <v>7.26</v>
       </c>
       <c r="H16">
-        <v>4.42</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="I16">
-        <v>39.299999999999997</v>
+        <v>30</v>
       </c>
       <c r="J16">
-        <v>35.5</v>
+        <v>85.1</v>
       </c>
       <c r="K16">
-        <v>93.8</v>
+        <v>104</v>
       </c>
       <c r="L16">
-        <v>63.7</v>
+        <v>119</v>
       </c>
       <c r="M16">
-        <v>48.5</v>
+        <v>131</v>
+      </c>
+      <c r="N16">
+        <v>3</v>
       </c>
       <c r="O16">
-        <v>4.17</v>
+        <v>9.8000000000000007</v>
       </c>
       <c r="R16">
         <f>O16+P16+Q16</f>
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B17">
-        <v>1611</v>
+        <v>6208</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="D17">
-        <v>15.85</v>
+        <v>53</v>
       </c>
       <c r="E17">
-        <v>9.69</v>
+        <v>0.95</v>
       </c>
       <c r="F17">
-        <v>11.6</v>
+        <v>10.9</v>
       </c>
       <c r="G17">
-        <v>11.6</v>
+        <v>13.6</v>
       </c>
       <c r="H17">
-        <v>14.4</v>
+        <v>11.2</v>
       </c>
       <c r="I17">
-        <v>8.56</v>
+        <v>12.1</v>
       </c>
       <c r="J17">
-        <v>56.2</v>
+        <v>26.6</v>
       </c>
       <c r="K17">
-        <v>58.7</v>
+        <v>30.9</v>
       </c>
       <c r="L17">
-        <v>51.7</v>
+        <v>35.5</v>
       </c>
       <c r="M17">
-        <v>40.9</v>
+        <v>39.5</v>
+      </c>
+      <c r="N17">
+        <v>2.9</v>
       </c>
       <c r="O17">
-        <v>4.22</v>
+        <v>3.66</v>
+      </c>
+      <c r="P17">
+        <v>2.84</v>
       </c>
       <c r="R17">
         <f>O17+P17+Q17</f>
-        <v>4.22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="B18">
-        <v>3167</v>
+        <v>6174</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>105</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="E18">
-        <v>9.0299999999999994</v>
+        <v>-3.85</v>
       </c>
       <c r="F18">
-        <v>10.5</v>
+        <v>-2.37</v>
       </c>
       <c r="G18">
-        <v>15.1</v>
+        <v>7.37</v>
       </c>
       <c r="H18">
-        <v>19.5</v>
+        <v>15.3</v>
       </c>
       <c r="I18">
-        <v>28.7</v>
+        <v>17.7</v>
       </c>
       <c r="J18">
-        <v>46.6</v>
+        <v>30.4</v>
       </c>
       <c r="K18">
-        <v>54.6</v>
+        <v>78.8</v>
       </c>
       <c r="L18">
-        <v>69.900000000000006</v>
+        <v>114</v>
       </c>
       <c r="M18">
-        <v>144</v>
+        <v>211</v>
+      </c>
+      <c r="N18">
+        <v>2.9</v>
       </c>
       <c r="O18">
-        <v>4.53</v>
+        <v>6.36</v>
+      </c>
+      <c r="P18">
+        <v>0.9</v>
       </c>
       <c r="R18">
         <f>O18+P18+Q18</f>
-        <v>4.53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+        <v>7.2600000000000007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>2374</v>
+        <v>3221</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D19">
-        <v>21.8</v>
+        <v>41.4</v>
       </c>
       <c r="E19">
-        <v>9.82</v>
+        <v>-3.83</v>
       </c>
       <c r="F19">
-        <v>13.8</v>
+        <v>-3.94</v>
       </c>
       <c r="G19">
-        <v>12.4</v>
+        <v>5.61</v>
       </c>
       <c r="H19">
-        <v>9.82</v>
+        <v>16.3</v>
       </c>
       <c r="I19">
-        <v>13.5</v>
+        <v>24.9</v>
       </c>
       <c r="J19">
-        <v>22.1</v>
+        <v>39.4</v>
       </c>
       <c r="K19">
-        <v>45.8</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="L19">
-        <v>52.4</v>
+        <v>109</v>
       </c>
       <c r="M19">
-        <v>61.5</v>
+        <v>84.4</v>
+      </c>
+      <c r="N19">
+        <v>2.9</v>
       </c>
       <c r="O19">
-        <v>4.55</v>
+        <v>7.73</v>
+      </c>
+      <c r="P19">
+        <v>1.57</v>
       </c>
       <c r="R19">
         <f>O19+P19+Q19</f>
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="B20">
-        <v>4927</v>
+        <v>3122</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="D20">
-        <v>103</v>
+        <v>66.2</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>-1.78</v>
       </c>
       <c r="F20">
-        <v>2.4900000000000002</v>
+        <v>-0.9</v>
       </c>
       <c r="G20">
-        <v>-0.48</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="H20">
-        <v>1.48</v>
+        <v>27.1</v>
       </c>
       <c r="I20">
-        <v>21.5</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="J20">
-        <v>31.2</v>
+        <v>61.5</v>
       </c>
       <c r="K20">
-        <v>89.3</v>
+        <v>40.9</v>
       </c>
       <c r="L20">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20">
-        <v>25</v>
+        <v>394</v>
+      </c>
+      <c r="N20">
+        <v>2.9</v>
       </c>
       <c r="O20">
-        <v>4.8899999999999997</v>
+        <v>3.2</v>
+      </c>
+      <c r="P20">
+        <v>9.14</v>
       </c>
       <c r="R20">
         <f>O20+P20+Q20</f>
-        <v>4.8899999999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B21">
-        <v>8182</v>
+        <v>6196</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>60</v>
+        <v>153.5</v>
       </c>
       <c r="E21">
-        <v>-1.48</v>
+        <v>-0.32</v>
       </c>
       <c r="F21">
-        <v>8.3000000000000007</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>13.4</v>
+        <v>-2.54</v>
       </c>
       <c r="H21">
-        <v>21.6</v>
+        <v>11.2</v>
       </c>
       <c r="I21">
-        <v>38.700000000000003</v>
+        <v>33.5</v>
       </c>
       <c r="J21">
-        <v>40.5</v>
+        <v>34.6</v>
       </c>
       <c r="K21">
-        <v>38.700000000000003</v>
+        <v>38.9</v>
       </c>
       <c r="L21">
-        <v>94.5</v>
+        <v>62.3</v>
       </c>
       <c r="M21">
-        <v>115</v>
+        <v>37.1</v>
+      </c>
+      <c r="N21">
+        <v>2.9</v>
       </c>
       <c r="O21">
-        <v>2.44</v>
+        <v>3.93</v>
       </c>
       <c r="P21">
-        <v>3.44</v>
+        <v>11.53</v>
       </c>
       <c r="R21">
         <f>O21+P21+Q21</f>
-        <v>5.88</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+        <v>15.459999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="B22">
-        <v>6208</v>
+        <v>4721</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D22">
-        <v>53</v>
+        <v>171</v>
       </c>
       <c r="E22">
-        <v>0.95</v>
+        <v>1.79</v>
       </c>
       <c r="F22">
-        <v>10.9</v>
+        <v>2.4</v>
       </c>
       <c r="G22">
-        <v>13.6</v>
+        <v>0.59</v>
       </c>
       <c r="H22">
-        <v>11.2</v>
+        <v>1.79</v>
       </c>
       <c r="I22">
-        <v>12.1</v>
+        <v>4.59</v>
       </c>
       <c r="J22">
-        <v>26.6</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="K22">
-        <v>30.9</v>
+        <v>34.1</v>
       </c>
       <c r="L22">
-        <v>35.5</v>
+        <v>211</v>
       </c>
       <c r="M22">
-        <v>39.5</v>
+        <v>188</v>
+      </c>
+      <c r="N22">
+        <v>2.9</v>
       </c>
       <c r="O22">
-        <v>3.66</v>
+        <v>3.86</v>
       </c>
       <c r="P22">
-        <v>2.84</v>
+        <v>11.89</v>
       </c>
       <c r="R22">
         <f>O22+P22+Q22</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+        <v>15.75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="B23">
-        <v>3169</v>
+        <v>8103</v>
       </c>
       <c r="C23" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="D23">
-        <v>224.5</v>
+        <v>52.3</v>
       </c>
       <c r="E23">
-        <v>-4.0599999999999996</v>
+        <v>3.77</v>
       </c>
       <c r="F23">
-        <v>-8.3699999999999992</v>
+        <v>6.09</v>
       </c>
       <c r="G23">
-        <v>0.67</v>
+        <v>4.18</v>
       </c>
       <c r="H23">
-        <v>16.899999999999999</v>
+        <v>6.3</v>
       </c>
       <c r="I23">
-        <v>32.4</v>
+        <v>3.98</v>
       </c>
       <c r="J23">
-        <v>57</v>
+        <v>25</v>
       </c>
       <c r="K23">
-        <v>72.7</v>
+        <v>25</v>
       </c>
       <c r="L23">
-        <v>93.5</v>
+        <v>46.1</v>
       </c>
       <c r="M23">
-        <v>473</v>
+        <v>67.400000000000006</v>
+      </c>
+      <c r="N23">
+        <v>2.5</v>
       </c>
       <c r="O23">
-        <v>3.29</v>
-      </c>
-      <c r="P23">
-        <v>3.42</v>
+        <v>1.67</v>
       </c>
       <c r="R23">
         <f>O23+P23+Q23</f>
-        <v>6.71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+        <v>1.67</v>
+      </c>
+      <c r="S23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="B24">
-        <v>2618</v>
+        <v>1709</v>
       </c>
       <c r="C24" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>28.3</v>
+        <v>24.25</v>
       </c>
       <c r="E24">
-        <v>-3.25</v>
+        <v>1.04</v>
       </c>
       <c r="F24">
-        <v>1.07</v>
+        <v>6.36</v>
       </c>
       <c r="G24">
-        <v>5.79</v>
+        <v>6.36</v>
       </c>
       <c r="H24">
-        <v>4.43</v>
+        <v>9.48</v>
       </c>
       <c r="I24">
-        <v>34.799999999999997</v>
+        <v>18.899999999999999</v>
       </c>
       <c r="J24">
-        <v>49.7</v>
+        <v>11.5</v>
       </c>
       <c r="K24">
-        <v>54.2</v>
+        <v>21.9</v>
       </c>
       <c r="L24">
-        <v>90.6</v>
+        <v>39</v>
       </c>
       <c r="M24">
-        <v>128</v>
+        <v>68.400000000000006</v>
+      </c>
+      <c r="N24">
+        <v>2.5</v>
       </c>
       <c r="O24">
-        <v>6.75</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="R24">
         <f>O24+P24+Q24</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="B25">
-        <v>2436</v>
+        <v>6265</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="D25">
-        <v>104</v>
+        <v>12.95</v>
       </c>
       <c r="E25">
-        <v>-4.1500000000000004</v>
+        <v>9.75</v>
       </c>
       <c r="F25">
-        <v>-5.45</v>
+        <v>5.28</v>
       </c>
       <c r="G25">
-        <v>-3.7</v>
+        <v>15.1</v>
       </c>
       <c r="H25">
-        <v>11.3</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="I25">
-        <v>29.2</v>
+        <v>15.1</v>
       </c>
       <c r="J25">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="K25">
-        <v>52.7</v>
+        <v>29.8</v>
       </c>
       <c r="L25">
-        <v>86.4</v>
+        <v>68.400000000000006</v>
       </c>
       <c r="M25">
-        <v>217</v>
+        <v>93.9</v>
+      </c>
+      <c r="N25">
+        <v>2.5</v>
       </c>
       <c r="O25">
-        <v>2.36</v>
-      </c>
-      <c r="P25">
-        <v>4.42</v>
+        <v>2.76</v>
       </c>
       <c r="R25">
         <f>O25+P25+Q25</f>
-        <v>6.7799999999999994</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+        <v>2.76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="B26">
-        <v>8040</v>
+        <v>1810</v>
       </c>
       <c r="C26" t="s">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="D26">
-        <v>82.1</v>
+        <v>16.75</v>
       </c>
       <c r="E26">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="F26">
-        <v>-0.85</v>
+        <v>9.84</v>
       </c>
       <c r="G26">
-        <v>3.01</v>
+        <v>15.9</v>
       </c>
       <c r="H26">
-        <v>17.5</v>
+        <v>11.3</v>
       </c>
       <c r="I26">
-        <v>26.7</v>
+        <v>14.3</v>
       </c>
       <c r="J26">
-        <v>50.1</v>
+        <v>28.8</v>
       </c>
       <c r="K26">
-        <v>45.8</v>
+        <v>60.3</v>
       </c>
       <c r="L26">
-        <v>104</v>
+        <v>61.1</v>
       </c>
       <c r="M26">
-        <v>415</v>
+        <v>83.1</v>
+      </c>
+      <c r="N26">
+        <v>2.5</v>
       </c>
       <c r="O26">
-        <v>7.19</v>
+        <v>3.39</v>
       </c>
       <c r="R26">
         <f>O26+P26+Q26</f>
-        <v>7.19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>6457</v>
+        <v>3169</v>
       </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>212</v>
+        <v>224.5</v>
       </c>
       <c r="E27">
-        <v>1.92</v>
+        <v>-4.0599999999999996</v>
       </c>
       <c r="F27">
-        <v>1.68</v>
+        <v>-8.3699999999999992</v>
       </c>
       <c r="G27">
-        <v>3.92</v>
+        <v>0.67</v>
       </c>
       <c r="H27">
-        <v>18.8</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="I27">
-        <v>26.2</v>
+        <v>32.4</v>
       </c>
       <c r="J27">
-        <v>36.799999999999997</v>
+        <v>57</v>
       </c>
       <c r="K27">
-        <v>43.2</v>
+        <v>72.7</v>
       </c>
       <c r="L27">
-        <v>43.2</v>
+        <v>93.5</v>
       </c>
       <c r="M27">
-        <v>227</v>
+        <v>473</v>
+      </c>
+      <c r="N27">
+        <v>2.5</v>
       </c>
       <c r="O27">
-        <v>7.26</v>
+        <v>3.29</v>
+      </c>
+      <c r="P27">
+        <v>3.42</v>
       </c>
       <c r="R27">
         <f>O27+P27+Q27</f>
-        <v>7.26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+        <v>6.71</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B28">
-        <v>6174</v>
+        <v>3041</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>19</v>
       </c>
       <c r="D28">
-        <v>34.950000000000003</v>
+        <v>38.5</v>
       </c>
       <c r="E28">
-        <v>-3.85</v>
+        <v>2.39</v>
       </c>
       <c r="F28">
-        <v>-2.37</v>
+        <v>12.6</v>
       </c>
       <c r="G28">
-        <v>7.37</v>
+        <v>23.8</v>
       </c>
       <c r="H28">
-        <v>15.3</v>
+        <v>34.6</v>
       </c>
       <c r="I28">
-        <v>17.7</v>
+        <v>38.200000000000003</v>
       </c>
       <c r="J28">
-        <v>30.4</v>
+        <v>48.6</v>
       </c>
       <c r="K28">
-        <v>78.8</v>
+        <v>48.1</v>
       </c>
       <c r="L28">
-        <v>114</v>
+        <v>65.2</v>
       </c>
       <c r="M28">
-        <v>211</v>
+        <v>32.1</v>
+      </c>
+      <c r="N28">
+        <v>2.5</v>
       </c>
       <c r="O28">
-        <v>6.36</v>
-      </c>
-      <c r="P28">
-        <v>0.9</v>
+        <v>16.25</v>
       </c>
       <c r="R28">
         <f>O28+P28+Q28</f>
-        <v>7.2600000000000007</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+        <v>16.25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B29">
-        <v>2484</v>
+        <v>6271</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="D29">
-        <v>42.6</v>
+        <v>298.5</v>
       </c>
       <c r="E29">
-        <v>0.71</v>
+        <v>-1.97</v>
       </c>
       <c r="F29">
-        <v>2.4</v>
+        <v>-0.67</v>
       </c>
       <c r="G29">
+        <v>-1.32</v>
+      </c>
+      <c r="H29">
+        <v>4.37</v>
+      </c>
+      <c r="I29">
         <v>9.94</v>
       </c>
-      <c r="H29">
-        <v>23.7</v>
-      </c>
-      <c r="I29">
-        <v>26.4</v>
-      </c>
       <c r="J29">
-        <v>33.5</v>
+        <v>20.6</v>
       </c>
       <c r="K29">
-        <v>26.4</v>
+        <v>24.9</v>
       </c>
       <c r="L29">
-        <v>68</v>
-      </c>
-      <c r="M29">
-        <v>102</v>
+        <v>85.4</v>
+      </c>
+      <c r="N29">
+        <v>2.2999999999999998</v>
       </c>
       <c r="O29">
-        <v>7.36</v>
+        <v>3.77</v>
       </c>
       <c r="R29">
         <f>O29+P29+Q29</f>
-        <v>7.36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B30">
-        <v>3305</v>
+        <v>4927</v>
       </c>
       <c r="C30" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30">
+        <v>103</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>2.4900000000000002</v>
+      </c>
+      <c r="G30">
+        <v>-0.48</v>
+      </c>
+      <c r="H30">
+        <v>1.48</v>
+      </c>
+      <c r="I30">
+        <v>21.5</v>
+      </c>
+      <c r="J30">
+        <v>31.2</v>
+      </c>
+      <c r="K30">
+        <v>89.3</v>
+      </c>
+      <c r="L30">
+        <v>104</v>
+      </c>
+      <c r="M30">
         <v>25</v>
       </c>
-      <c r="D30">
-        <v>84.3</v>
-      </c>
-      <c r="E30">
-        <v>-1.4</v>
-      </c>
-      <c r="F30">
-        <v>-3.21</v>
-      </c>
-      <c r="G30">
-        <v>0.36</v>
-      </c>
-      <c r="H30">
-        <v>6.98</v>
-      </c>
-      <c r="I30">
-        <v>10.1</v>
-      </c>
-      <c r="J30">
-        <v>40.5</v>
-      </c>
-      <c r="K30">
-        <v>89.4</v>
-      </c>
-      <c r="L30">
-        <v>120</v>
-      </c>
-      <c r="M30">
-        <v>233</v>
+      <c r="N30">
+        <v>2.2999999999999998</v>
       </c>
       <c r="O30">
-        <v>2.02</v>
-      </c>
-      <c r="P30">
-        <v>5.67</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="R30">
         <f>O30+P30+Q30</f>
-        <v>7.6899999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+        <v>4.8899999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B31">
-        <v>5227</v>
+        <v>3037</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D31">
-        <v>48.5</v>
+        <v>192.5</v>
       </c>
       <c r="E31">
-        <v>3.63</v>
+        <v>-2.78</v>
       </c>
       <c r="F31">
-        <v>-0.21</v>
+        <v>-1.28</v>
       </c>
       <c r="G31">
-        <v>-4.1500000000000004</v>
+        <v>-1.79</v>
       </c>
       <c r="H31">
-        <v>13.3</v>
+        <v>-1.28</v>
       </c>
       <c r="I31">
-        <v>8.99</v>
+        <v>1.32</v>
       </c>
       <c r="J31">
-        <v>65</v>
+        <v>36</v>
       </c>
       <c r="K31">
-        <v>113</v>
+        <v>46.9</v>
       </c>
       <c r="L31">
-        <v>423</v>
+        <v>103</v>
       </c>
       <c r="M31">
-        <v>218</v>
+        <v>155</v>
+      </c>
+      <c r="N31">
+        <v>2.2999999999999998</v>
       </c>
       <c r="O31">
-        <v>7.94</v>
+        <v>5.71</v>
+      </c>
+      <c r="P31">
+        <v>5.86</v>
       </c>
       <c r="R31">
         <f>O31+P31+Q31</f>
-        <v>7.94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+        <v>11.57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B32">
-        <v>3016</v>
+        <v>1303</v>
       </c>
       <c r="C32" t="s">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>130</v>
+        <v>86</v>
       </c>
       <c r="E32">
-        <v>1.96</v>
+        <v>0.47</v>
       </c>
       <c r="F32">
-        <v>12.1</v>
+        <v>0.12</v>
       </c>
       <c r="G32">
-        <v>23.2</v>
+        <v>0.12</v>
       </c>
       <c r="H32">
-        <v>32.700000000000003</v>
+        <v>0.82</v>
       </c>
       <c r="I32">
-        <v>27.5</v>
+        <v>1.06</v>
       </c>
       <c r="J32">
-        <v>39.5</v>
+        <v>-3.26</v>
       </c>
       <c r="K32">
-        <v>66.5</v>
+        <v>2.38</v>
       </c>
       <c r="L32">
-        <v>110</v>
+        <v>5.52</v>
       </c>
       <c r="M32">
-        <v>110</v>
-      </c>
-      <c r="O32">
-        <v>8</v>
+        <v>31.3</v>
+      </c>
+      <c r="N32">
+        <v>2</v>
       </c>
       <c r="R32">
         <f>O32+P32+Q32</f>
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="B33">
-        <v>3588</v>
+        <v>2504</v>
       </c>
       <c r="C33" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>158</v>
+        <v>27.95</v>
       </c>
       <c r="E33">
-        <v>-6.51</v>
+        <v>1.64</v>
       </c>
       <c r="F33">
-        <v>-5.39</v>
+        <v>0.18</v>
       </c>
       <c r="G33">
-        <v>-3.07</v>
+        <v>-0.71</v>
       </c>
       <c r="H33">
-        <v>2.93</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="I33">
-        <v>15.8</v>
+        <v>12.7</v>
       </c>
       <c r="J33">
-        <v>32.200000000000003</v>
+        <v>13.2</v>
       </c>
       <c r="K33">
-        <v>36.200000000000003</v>
+        <v>30</v>
       </c>
       <c r="L33">
-        <v>155</v>
+        <v>23.9</v>
       </c>
       <c r="M33">
-        <v>273</v>
-      </c>
-      <c r="O33">
-        <v>3.16</v>
-      </c>
-      <c r="P33">
-        <v>5.0199999999999996</v>
+        <v>1.64</v>
+      </c>
+      <c r="N33">
+        <v>2</v>
       </c>
       <c r="R33">
         <f>O33+P33+Q33</f>
-        <v>8.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="B34">
-        <v>3221</v>
+        <v>2527</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="D34">
-        <v>41.4</v>
+        <v>34.85</v>
       </c>
       <c r="E34">
-        <v>-3.83</v>
+        <v>1.9</v>
       </c>
       <c r="F34">
-        <v>-3.94</v>
+        <v>6.09</v>
       </c>
       <c r="G34">
-        <v>5.61</v>
+        <v>13.7</v>
       </c>
       <c r="H34">
-        <v>16.3</v>
+        <v>12.1</v>
       </c>
       <c r="I34">
-        <v>24.9</v>
+        <v>12.8</v>
       </c>
       <c r="J34">
-        <v>39.4</v>
+        <v>11.3</v>
       </c>
       <c r="K34">
-        <v>40.299999999999997</v>
+        <v>25.1</v>
       </c>
       <c r="L34">
-        <v>109</v>
+        <v>53.5</v>
       </c>
       <c r="M34">
-        <v>84.4</v>
+        <v>90.4</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
       </c>
       <c r="O34">
-        <v>7.73</v>
-      </c>
-      <c r="P34">
-        <v>1.57</v>
+        <v>3.16</v>
       </c>
       <c r="R34">
         <f>O34+P34+Q34</f>
-        <v>9.3000000000000007</v>
+        <v>3.16</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>2368</v>
+        <v>6191</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D35">
-        <v>76.599999999999994</v>
+        <v>37.85</v>
       </c>
       <c r="E35">
+        <v>0.26</v>
+      </c>
+      <c r="F35">
         <v>0.66</v>
       </c>
-      <c r="F35">
-        <v>-0.65</v>
-      </c>
       <c r="G35">
-        <v>5.08</v>
+        <v>-1.43</v>
       </c>
       <c r="H35">
-        <v>10.5</v>
+        <v>1.47</v>
       </c>
       <c r="I35">
-        <v>10.7</v>
+        <v>-0.39</v>
       </c>
       <c r="J35">
-        <v>19.7</v>
+        <v>13.5</v>
       </c>
       <c r="K35">
-        <v>19.3</v>
+        <v>20.5</v>
       </c>
       <c r="L35">
-        <v>50.8</v>
+        <v>31.7</v>
       </c>
       <c r="M35">
-        <v>68.5</v>
+        <v>63.9</v>
       </c>
       <c r="N35">
         <v>2</v>
       </c>
       <c r="O35">
-        <v>7.73</v>
-      </c>
-      <c r="P35">
-        <v>1.57</v>
+        <v>3.42</v>
       </c>
       <c r="R35">
         <f>O35+P35+Q35</f>
-        <v>9.3000000000000007</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
-        <v>22</v>
+        <v>58</v>
       </c>
       <c r="B36">
-        <v>3062</v>
+        <v>2314</v>
       </c>
       <c r="C36" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D36">
-        <v>34.700000000000003</v>
+        <v>90.7</v>
       </c>
       <c r="E36">
-        <v>-1.98</v>
+        <v>-4.53</v>
       </c>
       <c r="F36">
-        <v>-0.28999999999999998</v>
+        <v>2.25</v>
       </c>
       <c r="G36">
-        <v>7.26</v>
+        <v>12.4</v>
       </c>
       <c r="H36">
-        <v>18.600000000000001</v>
+        <v>16</v>
       </c>
       <c r="I36">
-        <v>30</v>
+        <v>23.1</v>
       </c>
       <c r="J36">
-        <v>85.1</v>
+        <v>29.6</v>
       </c>
       <c r="K36">
-        <v>104</v>
+        <v>78.5</v>
       </c>
       <c r="L36">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="M36">
-        <v>131</v>
+        <v>286</v>
+      </c>
+      <c r="N36">
+        <v>2</v>
       </c>
       <c r="O36">
-        <v>9.8000000000000007</v>
+        <v>1.73</v>
+      </c>
+      <c r="P36">
+        <v>2.42</v>
       </c>
       <c r="R36">
         <f>O36+P36+Q36</f>
-        <v>9.8000000000000007</v>
+        <v>4.1500000000000004</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B37">
-        <v>2338</v>
+        <v>8046</v>
       </c>
       <c r="C37" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D37">
-        <v>104.5</v>
+        <v>548</v>
       </c>
       <c r="E37">
-        <v>-0.95</v>
+        <v>-2.14</v>
       </c>
       <c r="F37">
-        <v>0.48</v>
+        <v>-2.3199999999999998</v>
       </c>
       <c r="G37">
-        <v>10.1</v>
+        <v>-2.4900000000000002</v>
       </c>
       <c r="H37">
-        <v>12.6</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="I37">
-        <v>16.100000000000001</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="J37">
-        <v>35.700000000000003</v>
+        <v>21.6</v>
       </c>
       <c r="K37">
-        <v>37.1</v>
+        <v>52.2</v>
       </c>
       <c r="L37">
-        <v>42</v>
+        <v>87.7</v>
       </c>
       <c r="M37">
-        <v>215</v>
+        <v>290</v>
       </c>
       <c r="N37">
         <v>2</v>
       </c>
       <c r="O37">
-        <v>10.44</v>
+        <v>2.67</v>
+      </c>
+      <c r="P37">
+        <v>3.34</v>
       </c>
       <c r="R37">
         <f>O37+P37+Q37</f>
-        <v>10.44</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
-        <v>8</v>
+        <v>66</v>
       </c>
       <c r="B38">
-        <v>2376</v>
+        <v>2368</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="D38">
-        <v>138.5</v>
+        <v>76.599999999999994</v>
       </c>
       <c r="E38">
-        <v>-3.15</v>
+        <v>0.66</v>
       </c>
       <c r="F38">
-        <v>-1.42</v>
+        <v>-0.65</v>
       </c>
       <c r="G38">
-        <v>1.84</v>
+        <v>5.08</v>
       </c>
       <c r="H38">
-        <v>1.0900000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="I38">
-        <v>14.5</v>
+        <v>10.7</v>
       </c>
       <c r="J38">
-        <v>25.9</v>
+        <v>19.7</v>
       </c>
       <c r="K38">
-        <v>66.7</v>
+        <v>19.3</v>
       </c>
       <c r="L38">
-        <v>35.799999999999997</v>
+        <v>50.8</v>
       </c>
       <c r="M38">
-        <v>84.4</v>
+        <v>68.5</v>
+      </c>
+      <c r="N38">
+        <v>2</v>
       </c>
       <c r="O38">
-        <v>0.85</v>
+        <v>7.73</v>
       </c>
       <c r="P38">
-        <v>9.7200000000000006</v>
+        <v>1.57</v>
       </c>
       <c r="R38">
         <f>O38+P38+Q38</f>
-        <v>10.57</v>
+        <v>9.3000000000000007</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="B39">
-        <v>5371</v>
+        <v>6533</v>
       </c>
       <c r="C39" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="D39">
-        <v>89.1</v>
+        <v>609</v>
       </c>
       <c r="E39">
-        <v>-0.89</v>
+        <v>4.46</v>
       </c>
       <c r="F39">
-        <v>3.12</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G39">
-        <v>-1.98</v>
+        <v>5</v>
       </c>
       <c r="H39">
-        <v>18.5</v>
+        <v>18.3</v>
       </c>
       <c r="I39">
-        <v>34.200000000000003</v>
+        <v>18.3</v>
       </c>
       <c r="J39">
-        <v>62.9</v>
+        <v>33.4</v>
       </c>
       <c r="K39">
-        <v>66.2</v>
+        <v>33.1</v>
       </c>
       <c r="L39">
-        <v>60.5</v>
+        <v>62.4</v>
       </c>
       <c r="M39">
-        <v>157</v>
+        <v>178</v>
+      </c>
+      <c r="N39">
+        <v>2</v>
       </c>
       <c r="O39">
-        <v>2.3199999999999998</v>
+        <v>1.9</v>
       </c>
       <c r="P39">
-        <v>9.0500000000000007</v>
+        <v>8.18</v>
       </c>
       <c r="R39">
         <f>O39+P39+Q39</f>
-        <v>11.370000000000001</v>
+        <v>10.08</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="B40">
-        <v>3122</v>
+        <v>3707</v>
       </c>
       <c r="C40" t="s">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="D40">
-        <v>66.2</v>
+        <v>157</v>
       </c>
       <c r="E40">
-        <v>-1.78</v>
+        <v>-5.14</v>
       </c>
       <c r="F40">
-        <v>-0.9</v>
+        <v>-1.57</v>
       </c>
       <c r="G40">
-        <v>8.8800000000000008</v>
+        <v>-1.26</v>
       </c>
       <c r="H40">
-        <v>27.1</v>
+        <v>3.63</v>
       </c>
       <c r="I40">
-        <v>39.200000000000003</v>
+        <v>4.67</v>
       </c>
       <c r="J40">
-        <v>61.5</v>
+        <v>21.2</v>
       </c>
       <c r="K40">
-        <v>40.9</v>
+        <v>82.6</v>
       </c>
       <c r="L40">
-        <v>105</v>
+        <v>182</v>
       </c>
       <c r="M40">
-        <v>394</v>
+        <v>458</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
       </c>
       <c r="O40">
-        <v>3.2</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="P40">
-        <v>9.14</v>
+        <v>8.14</v>
       </c>
       <c r="R40">
         <f>O40+P40+Q40</f>
-        <v>12.34</v>
+        <v>10.42</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B41">
-        <v>3035</v>
+        <v>2338</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D41">
-        <v>206</v>
+        <v>104.5</v>
       </c>
       <c r="E41">
-        <v>6.46</v>
+        <v>-0.95</v>
       </c>
       <c r="F41">
-        <v>3.78</v>
+        <v>0.48</v>
       </c>
       <c r="G41">
-        <v>8.99</v>
+        <v>10.1</v>
       </c>
       <c r="H41">
-        <v>6.19</v>
+        <v>12.6</v>
       </c>
       <c r="I41">
-        <v>6.46</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="J41">
-        <v>46.1</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="K41">
-        <v>129</v>
+        <v>37.1</v>
       </c>
       <c r="L41">
-        <v>254</v>
+        <v>42</v>
       </c>
       <c r="M41">
-        <v>354</v>
+        <v>215</v>
       </c>
       <c r="N41">
         <v>2</v>
       </c>
       <c r="O41">
-        <v>3.2</v>
-      </c>
-      <c r="P41">
-        <v>10.75</v>
+        <v>10.44</v>
       </c>
       <c r="R41">
         <f>O41+P41+Q41</f>
-        <v>13.95</v>
+        <v>10.44</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B42">
-        <v>3491</v>
+        <v>3035</v>
       </c>
       <c r="C42" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D42">
-        <v>171</v>
+        <v>206</v>
       </c>
       <c r="E42">
-        <v>-4.47</v>
+        <v>6.46</v>
       </c>
       <c r="F42">
-        <v>-5</v>
+        <v>3.78</v>
       </c>
       <c r="G42">
-        <v>4.2699999999999996</v>
+        <v>8.99</v>
       </c>
       <c r="H42">
-        <v>10.7</v>
+        <v>6.19</v>
       </c>
       <c r="I42">
-        <v>17.899999999999999</v>
+        <v>6.46</v>
       </c>
       <c r="J42">
-        <v>100</v>
+        <v>46.1</v>
       </c>
       <c r="K42">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="L42">
-        <v>172</v>
+        <v>254</v>
       </c>
       <c r="M42">
-        <v>141</v>
+        <v>354</v>
+      </c>
+      <c r="N42">
+        <v>2</v>
       </c>
       <c r="O42">
-        <v>4.68</v>
+        <v>3.2</v>
       </c>
       <c r="P42">
-        <v>10.01</v>
+        <v>10.75</v>
       </c>
       <c r="R42">
         <f>O42+P42+Q42</f>
-        <v>14.69</v>
+        <v>13.95</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="B43">
-        <v>8201</v>
+        <v>3003</v>
       </c>
       <c r="C43" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="D43">
-        <v>19</v>
+        <v>99.9</v>
       </c>
       <c r="E43">
-        <v>7.65</v>
+        <v>1.63</v>
       </c>
       <c r="F43">
-        <v>9.51</v>
+        <v>2.36</v>
       </c>
       <c r="G43">
-        <v>11.8</v>
+        <v>-0.6</v>
       </c>
       <c r="H43">
-        <v>11.4</v>
+        <v>6.05</v>
       </c>
       <c r="I43">
-        <v>7.65</v>
+        <v>3.63</v>
       </c>
       <c r="J43">
-        <v>24.6</v>
+        <v>7.42</v>
       </c>
       <c r="K43">
-        <v>66.7</v>
+        <v>14.2</v>
       </c>
       <c r="L43">
-        <v>104</v>
+        <v>62.7</v>
       </c>
       <c r="M43">
-        <v>106</v>
+        <v>140</v>
+      </c>
+      <c r="N43">
+        <v>2</v>
       </c>
       <c r="O43">
-        <v>14.95</v>
+        <v>2.34</v>
+      </c>
+      <c r="P43">
+        <v>12.77</v>
       </c>
       <c r="R43">
         <f>O43+P43+Q43</f>
-        <v>14.95</v>
+        <v>15.11</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="B44">
-        <v>6196</v>
+        <v>5258</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="D44">
-        <v>153.5</v>
+        <v>34.549999999999997</v>
       </c>
       <c r="E44">
-        <v>-0.32</v>
+        <v>3.29</v>
       </c>
       <c r="F44">
-        <v>0</v>
+        <v>4.07</v>
       </c>
       <c r="G44">
-        <v>-2.54</v>
+        <v>6.31</v>
       </c>
       <c r="H44">
-        <v>11.2</v>
+        <v>6.64</v>
       </c>
       <c r="I44">
-        <v>33.5</v>
+        <v>-0.43</v>
       </c>
       <c r="J44">
-        <v>34.6</v>
+        <v>24.5</v>
       </c>
       <c r="K44">
-        <v>38.9</v>
+        <v>66.099999999999994</v>
       </c>
       <c r="L44">
-        <v>62.3</v>
+        <v>73.2</v>
       </c>
       <c r="M44">
-        <v>37.1</v>
+        <v>59.6</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
       </c>
       <c r="O44">
-        <v>3.93</v>
+        <v>6.58</v>
       </c>
       <c r="P44">
-        <v>11.53</v>
+        <v>13.04</v>
       </c>
       <c r="R44">
         <f>O44+P44+Q44</f>
-        <v>15.459999999999999</v>
+        <v>19.619999999999997</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B45">
-        <v>4721</v>
+        <v>3189</v>
       </c>
       <c r="C45" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="D45">
-        <v>171</v>
+        <v>236.5</v>
       </c>
       <c r="E45">
-        <v>1.79</v>
+        <v>-2.67</v>
       </c>
       <c r="F45">
-        <v>2.4</v>
+        <v>0.21</v>
       </c>
       <c r="G45">
-        <v>0.59</v>
+        <v>-2.67</v>
       </c>
       <c r="H45">
-        <v>1.79</v>
+        <v>-2.87</v>
       </c>
       <c r="I45">
-        <v>4.59</v>
+        <v>-2.27</v>
       </c>
       <c r="J45">
-        <v>36.799999999999997</v>
+        <v>-0.42</v>
       </c>
       <c r="K45">
-        <v>34.1</v>
+        <v>48.7</v>
       </c>
       <c r="L45">
-        <v>211</v>
+        <v>168</v>
       </c>
       <c r="M45">
-        <v>188</v>
+        <v>206</v>
+      </c>
+      <c r="N45">
+        <v>2</v>
       </c>
       <c r="O45">
-        <v>3.86</v>
+        <v>11.23</v>
       </c>
       <c r="P45">
-        <v>11.89</v>
+        <v>9.4600000000000009</v>
       </c>
       <c r="R45">
         <f>O45+P45+Q45</f>
-        <v>15.75</v>
+        <v>20.69</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
-        <v>21</v>
+        <v>60</v>
       </c>
       <c r="B46">
-        <v>3041</v>
+        <v>1725</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D46">
-        <v>38.5</v>
+        <v>38.75</v>
       </c>
       <c r="E46">
-        <v>2.39</v>
+        <v>1.44</v>
       </c>
       <c r="F46">
-        <v>12.6</v>
+        <v>-1.27</v>
       </c>
       <c r="G46">
-        <v>23.8</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="H46">
-        <v>34.6</v>
+        <v>16.7</v>
       </c>
       <c r="I46">
-        <v>38.200000000000003</v>
+        <v>51.4</v>
       </c>
       <c r="J46">
-        <v>48.6</v>
+        <v>38.6</v>
       </c>
       <c r="K46">
-        <v>48.1</v>
+        <v>93.8</v>
       </c>
       <c r="L46">
-        <v>65.2</v>
+        <v>103</v>
       </c>
       <c r="M46">
-        <v>32.1</v>
+        <v>171</v>
+      </c>
+      <c r="N46">
+        <v>2</v>
       </c>
       <c r="O46">
-        <v>16.25</v>
+        <v>9.48</v>
+      </c>
+      <c r="P46">
+        <v>11.43</v>
       </c>
       <c r="R46">
         <f>O46+P46+Q46</f>
-        <v>16.25</v>
+        <v>20.91</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B47">
-        <v>5258</v>
+        <v>3033</v>
       </c>
       <c r="C47" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D47">
-        <v>34.549999999999997</v>
+        <v>30</v>
       </c>
       <c r="E47">
-        <v>3.29</v>
+        <v>0.17</v>
       </c>
       <c r="F47">
-        <v>4.07</v>
+        <v>-3.23</v>
       </c>
       <c r="G47">
-        <v>6.31</v>
+        <v>-5.21</v>
       </c>
       <c r="H47">
-        <v>6.64</v>
+        <v>-4.46</v>
       </c>
       <c r="I47">
-        <v>-0.43</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J47">
-        <v>24.5</v>
+        <v>15.4</v>
       </c>
       <c r="K47">
-        <v>66.099999999999994</v>
+        <v>27.1</v>
       </c>
       <c r="L47">
-        <v>73.2</v>
+        <v>33</v>
       </c>
       <c r="M47">
         <v>59.6</v>
@@ -3004,261 +3177,287 @@
         <v>2</v>
       </c>
       <c r="O47">
-        <v>6.58</v>
+        <v>1.49</v>
       </c>
       <c r="P47">
-        <v>13.04</v>
+        <v>11.2</v>
+      </c>
+      <c r="Q47">
+        <v>8.33</v>
       </c>
       <c r="R47">
         <f>O47+P47+Q47</f>
-        <v>19.619999999999997</v>
+        <v>21.02</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="B48">
-        <v>1725</v>
+        <v>1722</v>
       </c>
       <c r="C48" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="D48">
-        <v>38.75</v>
+        <v>69</v>
       </c>
       <c r="E48">
-        <v>1.44</v>
+        <v>1.77</v>
       </c>
       <c r="F48">
-        <v>-1.27</v>
+        <v>0.44</v>
       </c>
       <c r="G48">
-        <v>8.5399999999999991</v>
+        <v>-0.72</v>
       </c>
       <c r="H48">
-        <v>16.7</v>
+        <v>-3.36</v>
       </c>
       <c r="I48">
-        <v>51.4</v>
+        <v>2.37</v>
       </c>
       <c r="J48">
-        <v>38.6</v>
+        <v>-1.43</v>
       </c>
       <c r="K48">
-        <v>93.8</v>
+        <v>20.8</v>
       </c>
       <c r="L48">
-        <v>103</v>
+        <v>25.5</v>
       </c>
       <c r="M48">
-        <v>171</v>
+        <v>28.7</v>
+      </c>
+      <c r="N48">
+        <v>2</v>
       </c>
       <c r="O48">
-        <v>9.48</v>
+        <v>2.68</v>
       </c>
       <c r="P48">
-        <v>11.43</v>
+        <v>20.14</v>
       </c>
       <c r="R48">
         <f>O48+P48+Q48</f>
-        <v>20.91</v>
+        <v>22.82</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B49">
-        <v>6275</v>
+        <v>3504</v>
       </c>
       <c r="C49" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="D49">
-        <v>34.9</v>
+        <v>140.5</v>
       </c>
       <c r="E49">
-        <v>2.35</v>
+        <v>-3.77</v>
       </c>
       <c r="F49">
-        <v>12.6</v>
+        <v>5.64</v>
       </c>
       <c r="G49">
-        <v>9.06</v>
+        <v>2.93</v>
       </c>
       <c r="H49">
-        <v>12.4</v>
+        <v>8.08</v>
       </c>
       <c r="I49">
-        <v>14.4</v>
+        <v>6.84</v>
       </c>
       <c r="J49">
-        <v>20.3</v>
+        <v>25.4</v>
       </c>
       <c r="K49">
-        <v>20.3</v>
+        <v>55.9</v>
       </c>
       <c r="L49">
-        <v>23.1</v>
+        <v>105</v>
       </c>
       <c r="M49">
-        <v>84.7</v>
+        <v>139</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
       </c>
       <c r="O49">
-        <v>7.23</v>
+        <v>3.97</v>
       </c>
       <c r="P49">
-        <v>25.49</v>
+        <v>19</v>
       </c>
       <c r="R49">
         <f>O49+P49+Q49</f>
-        <v>32.72</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="B50">
-        <v>4934</v>
+        <v>2476</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="D50">
-        <v>38</v>
+        <v>63.7</v>
       </c>
       <c r="E50">
-        <v>4.68</v>
+        <v>1.1100000000000001</v>
       </c>
       <c r="F50">
-        <v>5.41</v>
+        <v>-0.16</v>
       </c>
       <c r="G50">
-        <v>8.26</v>
+        <v>1.43</v>
       </c>
       <c r="H50">
-        <v>4.83</v>
+        <v>1.92</v>
       </c>
       <c r="I50">
-        <v>4.25</v>
+        <v>1.59</v>
       </c>
       <c r="J50">
-        <v>5.56</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="K50">
-        <v>19.100000000000001</v>
+        <v>23.7</v>
       </c>
       <c r="L50">
-        <v>63.1</v>
+        <v>107</v>
       </c>
       <c r="M50">
-        <v>36.9</v>
+        <v>231</v>
       </c>
       <c r="N50">
         <v>2</v>
       </c>
       <c r="O50">
-        <v>4.24</v>
+        <v>2.8</v>
       </c>
       <c r="P50">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="Q50">
-        <v>29.45</v>
+        <v>21.14</v>
       </c>
       <c r="R50">
         <f>O50+P50+Q50</f>
-        <v>38.79</v>
+        <v>23.94</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>6533</v>
+        <v>3207</v>
       </c>
       <c r="C51" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="D51">
-        <v>609</v>
+        <v>26.1</v>
       </c>
       <c r="E51">
-        <v>4.46</v>
+        <v>-6.12</v>
       </c>
       <c r="F51">
-        <v>4.0999999999999996</v>
+        <v>-7.45</v>
       </c>
       <c r="G51">
-        <v>5</v>
+        <v>-2.4300000000000002</v>
       </c>
       <c r="H51">
-        <v>18.3</v>
+        <v>-2.61</v>
       </c>
       <c r="I51">
-        <v>18.3</v>
+        <v>11.5</v>
       </c>
       <c r="J51">
-        <v>33.4</v>
+        <v>31.2</v>
       </c>
       <c r="K51">
-        <v>33.1</v>
+        <v>117</v>
       </c>
       <c r="L51">
-        <v>62.4</v>
+        <v>137</v>
       </c>
       <c r="M51">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="N51">
         <v>2</v>
       </c>
+      <c r="O51">
+        <v>14.9</v>
+      </c>
+      <c r="P51">
+        <v>11.51</v>
+      </c>
+      <c r="R51">
+        <f>O51+P51+Q51</f>
+        <v>26.41</v>
+      </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B52">
-        <v>2889</v>
+        <v>6282</v>
       </c>
       <c r="C52" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D52">
-        <v>16.399999999999999</v>
+        <v>36</v>
       </c>
       <c r="E52">
-        <v>2.5</v>
+        <v>-3.49</v>
       </c>
       <c r="F52">
-        <v>3.47</v>
+        <v>-3.36</v>
       </c>
       <c r="G52">
-        <v>3.8</v>
+        <v>-3.36</v>
       </c>
       <c r="H52">
-        <v>4.13</v>
+        <v>-0.69</v>
       </c>
       <c r="I52">
-        <v>3.47</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J52">
-        <v>2.5</v>
+        <v>31.6</v>
       </c>
       <c r="K52">
-        <v>3.47</v>
+        <v>42.3</v>
       </c>
       <c r="L52">
-        <v>-1.8</v>
+        <v>43.1</v>
       </c>
       <c r="M52">
-        <v>35.5</v>
+        <v>36.4</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O52">
+        <v>16.95</v>
+      </c>
+      <c r="P52">
+        <v>10.210000000000001</v>
+      </c>
+      <c r="R52">
+        <f>O52+P52+Q52</f>
+        <v>27.16</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.3">
@@ -3269,7 +3468,7 @@
         <v>6182</v>
       </c>
       <c r="C53" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D53">
         <v>68.900000000000006</v>
@@ -3304,711 +3503,770 @@
       <c r="N53">
         <v>2</v>
       </c>
+      <c r="O53">
+        <v>11.33</v>
+      </c>
+      <c r="P53">
+        <v>21.04</v>
+      </c>
+      <c r="R53">
+        <f>O53+P53+Q53</f>
+        <v>32.369999999999997</v>
+      </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B54">
-        <v>3504</v>
+        <v>3017</v>
       </c>
       <c r="C54" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="D54">
-        <v>140.5</v>
+        <v>83.5</v>
       </c>
       <c r="E54">
-        <v>-3.77</v>
+        <v>1.21</v>
       </c>
       <c r="F54">
-        <v>5.64</v>
+        <v>1.83</v>
       </c>
       <c r="G54">
-        <v>2.93</v>
+        <v>2.83</v>
       </c>
       <c r="H54">
-        <v>8.08</v>
+        <v>-6.6</v>
       </c>
       <c r="I54">
-        <v>6.84</v>
+        <v>4.24</v>
       </c>
       <c r="J54">
-        <v>25.4</v>
+        <v>10.4</v>
       </c>
       <c r="K54">
-        <v>55.9</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L54">
-        <v>105</v>
+        <v>37.1</v>
       </c>
       <c r="M54">
-        <v>139</v>
+        <v>10.4</v>
       </c>
       <c r="N54">
         <v>2</v>
       </c>
+      <c r="O54">
+        <v>2.21</v>
+      </c>
+      <c r="P54">
+        <v>8.06</v>
+      </c>
+      <c r="Q54">
+        <v>27</v>
+      </c>
+      <c r="R54">
+        <f>O54+P54+Q54</f>
+        <v>37.269999999999996</v>
+      </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="B55">
-        <v>3017</v>
+        <v>4934</v>
       </c>
       <c r="C55" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="D55">
-        <v>83.5</v>
+        <v>38</v>
       </c>
       <c r="E55">
-        <v>1.21</v>
+        <v>4.68</v>
       </c>
       <c r="F55">
-        <v>1.83</v>
+        <v>5.41</v>
       </c>
       <c r="G55">
-        <v>2.83</v>
+        <v>8.26</v>
       </c>
       <c r="H55">
-        <v>-6.6</v>
+        <v>4.83</v>
       </c>
       <c r="I55">
-        <v>4.24</v>
+        <v>4.25</v>
       </c>
       <c r="J55">
-        <v>10.4</v>
+        <v>5.56</v>
       </c>
       <c r="K55">
-        <v>19.600000000000001</v>
+        <v>19.100000000000001</v>
       </c>
       <c r="L55">
-        <v>37.1</v>
+        <v>63.1</v>
       </c>
       <c r="M55">
-        <v>10.4</v>
+        <v>36.9</v>
       </c>
       <c r="N55">
         <v>2</v>
       </c>
+      <c r="O55">
+        <v>4.24</v>
+      </c>
+      <c r="P55">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="Q55">
+        <v>29.45</v>
+      </c>
+      <c r="R55">
+        <f>O55+P55+Q55</f>
+        <v>38.79</v>
+      </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B56">
-        <v>2476</v>
+        <v>3515</v>
       </c>
       <c r="C56" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D56">
+        <v>248</v>
+      </c>
+      <c r="E56">
+        <v>-4.0599999999999996</v>
+      </c>
+      <c r="F56">
+        <v>5.53</v>
+      </c>
+      <c r="G56">
+        <v>3.77</v>
+      </c>
+      <c r="H56">
+        <v>4.42</v>
+      </c>
+      <c r="I56">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="J56">
+        <v>35.5</v>
+      </c>
+      <c r="K56">
+        <v>93.8</v>
+      </c>
+      <c r="L56">
         <v>63.7</v>
       </c>
-      <c r="E56">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="F56">
-        <v>-0.16</v>
-      </c>
-      <c r="G56">
-        <v>1.43</v>
-      </c>
-      <c r="H56">
-        <v>1.92</v>
-      </c>
-      <c r="I56">
-        <v>1.59</v>
-      </c>
-      <c r="J56">
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="K56">
-        <v>23.7</v>
-      </c>
-      <c r="L56">
-        <v>107</v>
-      </c>
       <c r="M56">
-        <v>231</v>
-      </c>
-      <c r="N56">
-        <v>2</v>
+        <v>48.5</v>
+      </c>
+      <c r="O56">
+        <v>4.17</v>
+      </c>
+      <c r="R56">
+        <f>O56+P56+Q56</f>
+        <v>4.17</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B57">
-        <v>1303</v>
+        <v>1611</v>
       </c>
       <c r="C57" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57">
-        <v>86</v>
+        <v>15.85</v>
       </c>
       <c r="E57">
-        <v>0.47</v>
+        <v>9.69</v>
       </c>
       <c r="F57">
-        <v>0.12</v>
+        <v>11.6</v>
       </c>
       <c r="G57">
-        <v>0.12</v>
+        <v>11.6</v>
       </c>
       <c r="H57">
-        <v>0.82</v>
+        <v>14.4</v>
       </c>
       <c r="I57">
-        <v>1.06</v>
+        <v>8.56</v>
       </c>
       <c r="J57">
-        <v>-3.26</v>
+        <v>56.2</v>
       </c>
       <c r="K57">
-        <v>2.38</v>
+        <v>58.7</v>
       </c>
       <c r="L57">
-        <v>5.52</v>
+        <v>51.7</v>
       </c>
       <c r="M57">
-        <v>31.3</v>
-      </c>
-      <c r="N57">
-        <v>2</v>
+        <v>40.9</v>
+      </c>
+      <c r="O57">
+        <v>4.22</v>
+      </c>
+      <c r="R57">
+        <f>O57+P57+Q57</f>
+        <v>4.22</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>3003</v>
+        <v>3167</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="D58">
-        <v>99.9</v>
+        <v>105</v>
       </c>
       <c r="E58">
-        <v>1.63</v>
+        <v>9.0299999999999994</v>
       </c>
       <c r="F58">
-        <v>2.36</v>
+        <v>10.5</v>
       </c>
       <c r="G58">
-        <v>-0.6</v>
+        <v>15.1</v>
       </c>
       <c r="H58">
-        <v>6.05</v>
+        <v>19.5</v>
       </c>
       <c r="I58">
-        <v>3.63</v>
+        <v>28.7</v>
       </c>
       <c r="J58">
-        <v>7.42</v>
+        <v>46.6</v>
       </c>
       <c r="K58">
-        <v>14.2</v>
+        <v>54.6</v>
       </c>
       <c r="L58">
-        <v>62.7</v>
+        <v>69.900000000000006</v>
       </c>
       <c r="M58">
-        <v>140</v>
-      </c>
-      <c r="N58">
-        <v>2</v>
+        <v>144</v>
+      </c>
+      <c r="O58">
+        <v>4.53</v>
+      </c>
+      <c r="R58">
+        <f>O58+P58+Q58</f>
+        <v>4.53</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B59">
-        <v>2504</v>
+        <v>2374</v>
       </c>
       <c r="C59" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D59">
-        <v>27.95</v>
+        <v>21.8</v>
       </c>
       <c r="E59">
-        <v>1.64</v>
+        <v>9.82</v>
       </c>
       <c r="F59">
-        <v>0.18</v>
+        <v>13.8</v>
       </c>
       <c r="G59">
-        <v>-0.71</v>
+        <v>12.4</v>
       </c>
       <c r="H59">
-        <v>4.0999999999999996</v>
+        <v>9.82</v>
       </c>
       <c r="I59">
-        <v>12.7</v>
+        <v>13.5</v>
       </c>
       <c r="J59">
-        <v>13.2</v>
+        <v>22.1</v>
       </c>
       <c r="K59">
-        <v>30</v>
+        <v>45.8</v>
       </c>
       <c r="L59">
-        <v>23.9</v>
+        <v>52.4</v>
       </c>
       <c r="M59">
-        <v>1.64</v>
-      </c>
-      <c r="N59">
-        <v>2</v>
+        <v>61.5</v>
+      </c>
+      <c r="O59">
+        <v>4.55</v>
+      </c>
+      <c r="R59">
+        <f>O59+P59+Q59</f>
+        <v>4.55</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B60">
-        <v>1722</v>
+        <v>2618</v>
       </c>
       <c r="C60" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="D60">
-        <v>69</v>
+        <v>28.3</v>
       </c>
       <c r="E60">
-        <v>1.77</v>
+        <v>-3.25</v>
       </c>
       <c r="F60">
-        <v>0.44</v>
+        <v>1.07</v>
       </c>
       <c r="G60">
-        <v>-0.72</v>
+        <v>5.79</v>
       </c>
       <c r="H60">
-        <v>-3.36</v>
+        <v>4.43</v>
       </c>
       <c r="I60">
-        <v>2.37</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="J60">
-        <v>-1.43</v>
+        <v>49.7</v>
       </c>
       <c r="K60">
-        <v>20.8</v>
+        <v>54.2</v>
       </c>
       <c r="L60">
-        <v>25.5</v>
+        <v>90.6</v>
       </c>
       <c r="M60">
-        <v>28.7</v>
-      </c>
-      <c r="N60">
-        <v>2</v>
+        <v>128</v>
+      </c>
+      <c r="O60">
+        <v>6.75</v>
+      </c>
+      <c r="R60">
+        <f>O60+P60+Q60</f>
+        <v>6.75</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B61">
-        <v>3707</v>
+        <v>8040</v>
       </c>
       <c r="C61" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="D61">
-        <v>157</v>
+        <v>82.1</v>
       </c>
       <c r="E61">
-        <v>-5.14</v>
+        <v>0.61</v>
       </c>
       <c r="F61">
-        <v>-1.57</v>
+        <v>-0.85</v>
       </c>
       <c r="G61">
-        <v>-1.26</v>
+        <v>3.01</v>
       </c>
       <c r="H61">
-        <v>3.63</v>
+        <v>17.5</v>
       </c>
       <c r="I61">
-        <v>4.67</v>
+        <v>26.7</v>
       </c>
       <c r="J61">
-        <v>21.2</v>
+        <v>50.1</v>
       </c>
       <c r="K61">
-        <v>82.6</v>
+        <v>45.8</v>
       </c>
       <c r="L61">
-        <v>182</v>
+        <v>104</v>
       </c>
       <c r="M61">
-        <v>458</v>
-      </c>
-      <c r="N61">
-        <v>2</v>
+        <v>415</v>
+      </c>
+      <c r="O61">
+        <v>7.19</v>
+      </c>
+      <c r="R61">
+        <f>O61+P61+Q61</f>
+        <v>7.19</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
+        <v>47</v>
+      </c>
+      <c r="B62">
+        <v>6457</v>
+      </c>
+      <c r="C62" t="s">
         <v>44</v>
       </c>
-      <c r="B62">
-        <v>6271</v>
-      </c>
-      <c r="C62" t="s">
-        <v>42</v>
-      </c>
       <c r="D62">
-        <v>298.5</v>
+        <v>212</v>
       </c>
       <c r="E62">
-        <v>-1.97</v>
+        <v>1.92</v>
       </c>
       <c r="F62">
-        <v>-0.67</v>
+        <v>1.68</v>
       </c>
       <c r="G62">
-        <v>-1.32</v>
+        <v>3.92</v>
       </c>
       <c r="H62">
-        <v>4.37</v>
+        <v>18.8</v>
       </c>
       <c r="I62">
-        <v>9.94</v>
+        <v>26.2</v>
       </c>
       <c r="J62">
-        <v>20.6</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="K62">
-        <v>24.9</v>
+        <v>43.2</v>
       </c>
       <c r="L62">
-        <v>85.4</v>
-      </c>
-      <c r="N62">
-        <v>2</v>
+        <v>43.2</v>
+      </c>
+      <c r="M62">
+        <v>227</v>
+      </c>
+      <c r="O62">
+        <v>7.26</v>
+      </c>
+      <c r="R62">
+        <f>O62+P62+Q62</f>
+        <v>7.26</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B63">
-        <v>6191</v>
+        <v>3305</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D63">
-        <v>37.85</v>
+        <v>84.3</v>
       </c>
       <c r="E63">
-        <v>0.26</v>
+        <v>-1.4</v>
       </c>
       <c r="F63">
-        <v>0.66</v>
+        <v>-3.21</v>
       </c>
       <c r="G63">
-        <v>-1.43</v>
+        <v>0.36</v>
       </c>
       <c r="H63">
-        <v>1.47</v>
+        <v>6.98</v>
       </c>
       <c r="I63">
-        <v>-0.39</v>
+        <v>10.1</v>
       </c>
       <c r="J63">
-        <v>13.5</v>
+        <v>40.5</v>
       </c>
       <c r="K63">
-        <v>20.5</v>
+        <v>89.4</v>
       </c>
       <c r="L63">
-        <v>31.7</v>
+        <v>120</v>
       </c>
       <c r="M63">
-        <v>63.9</v>
-      </c>
-      <c r="N63">
-        <v>2</v>
+        <v>233</v>
+      </c>
+      <c r="O63">
+        <v>2.02</v>
+      </c>
+      <c r="P63">
+        <v>5.67</v>
+      </c>
+      <c r="R63">
+        <f>O63+P63+Q63</f>
+        <v>7.6899999999999995</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="B64">
-        <v>3037</v>
+        <v>5227</v>
       </c>
       <c r="C64" t="s">
+        <v>31</v>
+      </c>
+      <c r="D64">
+        <v>48.5</v>
+      </c>
+      <c r="E64">
+        <v>3.63</v>
+      </c>
+      <c r="F64">
+        <v>-0.21</v>
+      </c>
+      <c r="G64">
+        <v>-4.1500000000000004</v>
+      </c>
+      <c r="H64">
+        <v>13.3</v>
+      </c>
+      <c r="I64">
+        <v>8.99</v>
+      </c>
+      <c r="J64">
+        <v>65</v>
+      </c>
+      <c r="K64">
+        <v>113</v>
+      </c>
+      <c r="L64">
+        <v>423</v>
+      </c>
+      <c r="M64">
+        <v>218</v>
+      </c>
+      <c r="O64">
+        <v>7.94</v>
+      </c>
+      <c r="R64">
+        <f>O64+P64+Q64</f>
+        <v>7.94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>8</v>
+      </c>
+      <c r="B65">
+        <v>2376</v>
+      </c>
+      <c r="C65" t="s">
+        <v>8</v>
+      </c>
+      <c r="D65">
+        <v>138.5</v>
+      </c>
+      <c r="E65">
+        <v>-3.15</v>
+      </c>
+      <c r="F65">
+        <v>-1.42</v>
+      </c>
+      <c r="G65">
+        <v>1.84</v>
+      </c>
+      <c r="H65">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I65">
+        <v>14.5</v>
+      </c>
+      <c r="J65">
+        <v>25.9</v>
+      </c>
+      <c r="K65">
+        <v>66.7</v>
+      </c>
+      <c r="L65">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="M65">
+        <v>84.4</v>
+      </c>
+      <c r="O65">
+        <v>0.85</v>
+      </c>
+      <c r="P65">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="R65">
+        <f>O65+P65+Q65</f>
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>35</v>
+      </c>
+      <c r="B66">
+        <v>5371</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66">
+        <v>89.1</v>
+      </c>
+      <c r="E66">
+        <v>-0.89</v>
+      </c>
+      <c r="F66">
+        <v>3.12</v>
+      </c>
+      <c r="G66">
+        <v>-1.98</v>
+      </c>
+      <c r="H66">
+        <v>18.5</v>
+      </c>
+      <c r="I66">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="J66">
+        <v>62.9</v>
+      </c>
+      <c r="K66">
+        <v>66.2</v>
+      </c>
+      <c r="L66">
+        <v>60.5</v>
+      </c>
+      <c r="M66">
+        <v>157</v>
+      </c>
+      <c r="O66">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="P66">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="R66">
+        <f>O66+P66+Q66</f>
+        <v>11.370000000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>54</v>
+      </c>
+      <c r="B67">
+        <v>8201</v>
+      </c>
+      <c r="C67" t="s">
+        <v>51</v>
+      </c>
+      <c r="D67">
         <v>19</v>
       </c>
-      <c r="D64">
-        <v>192.5</v>
-      </c>
-      <c r="E64">
-        <v>-2.78</v>
-      </c>
-      <c r="F64">
-        <v>-1.28</v>
-      </c>
-      <c r="G64">
-        <v>-1.79</v>
-      </c>
-      <c r="H64">
-        <v>-1.28</v>
-      </c>
-      <c r="I64">
-        <v>1.32</v>
-      </c>
-      <c r="J64">
-        <v>36</v>
-      </c>
-      <c r="K64">
-        <v>46.9</v>
-      </c>
-      <c r="L64">
-        <v>103</v>
-      </c>
-      <c r="M64">
-        <v>155</v>
-      </c>
-      <c r="N64">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A65" s="1">
-        <v>61</v>
-      </c>
-      <c r="B65">
-        <v>3207</v>
-      </c>
-      <c r="C65" t="s">
-        <v>59</v>
-      </c>
-      <c r="D65">
-        <v>26.1</v>
-      </c>
-      <c r="E65">
-        <v>-6.12</v>
-      </c>
-      <c r="F65">
-        <v>-7.45</v>
-      </c>
-      <c r="G65">
-        <v>-2.4300000000000002</v>
-      </c>
-      <c r="H65">
-        <v>-2.61</v>
-      </c>
-      <c r="I65">
-        <v>11.5</v>
-      </c>
-      <c r="J65">
-        <v>31.2</v>
-      </c>
-      <c r="K65">
-        <v>117</v>
-      </c>
-      <c r="L65">
-        <v>137</v>
-      </c>
-      <c r="M65">
-        <v>156</v>
-      </c>
-      <c r="N65">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A66" s="1">
-        <v>50</v>
-      </c>
-      <c r="B66">
-        <v>8046</v>
-      </c>
-      <c r="C66" t="s">
-        <v>48</v>
-      </c>
-      <c r="D66">
-        <v>548</v>
-      </c>
-      <c r="E66">
-        <v>-2.14</v>
-      </c>
-      <c r="F66">
-        <v>-2.3199999999999998</v>
-      </c>
-      <c r="G66">
-        <v>-2.4900000000000002</v>
-      </c>
-      <c r="H66">
-        <v>-4.8600000000000003</v>
-      </c>
-      <c r="I66">
-        <v>2.4300000000000002</v>
-      </c>
-      <c r="J66">
-        <v>21.6</v>
-      </c>
-      <c r="K66">
-        <v>52.2</v>
-      </c>
-      <c r="L66">
-        <v>87.7</v>
-      </c>
-      <c r="M66">
-        <v>290</v>
-      </c>
-      <c r="N66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A67" s="1">
-        <v>24</v>
-      </c>
-      <c r="B67">
-        <v>3189</v>
-      </c>
-      <c r="C67" t="s">
-        <v>23</v>
-      </c>
-      <c r="D67">
-        <v>236.5</v>
-      </c>
       <c r="E67">
-        <v>-2.67</v>
+        <v>7.65</v>
       </c>
       <c r="F67">
-        <v>0.21</v>
+        <v>9.51</v>
       </c>
       <c r="G67">
-        <v>-2.67</v>
+        <v>11.8</v>
       </c>
       <c r="H67">
-        <v>-2.87</v>
+        <v>11.4</v>
       </c>
       <c r="I67">
-        <v>-2.27</v>
+        <v>7.65</v>
       </c>
       <c r="J67">
-        <v>-0.42</v>
+        <v>24.6</v>
       </c>
       <c r="K67">
-        <v>48.7</v>
+        <v>66.7</v>
       </c>
       <c r="L67">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="M67">
-        <v>206</v>
-      </c>
-      <c r="N67">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+      <c r="O67">
+        <v>14.95</v>
+      </c>
+      <c r="R67">
+        <f>O67+P67+Q67</f>
+        <v>14.95</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B68">
-        <v>6282</v>
+        <v>6275</v>
       </c>
       <c r="C68" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D68">
-        <v>36</v>
+        <v>34.9</v>
       </c>
       <c r="E68">
-        <v>-3.49</v>
+        <v>2.35</v>
       </c>
       <c r="F68">
-        <v>-3.36</v>
+        <v>12.6</v>
       </c>
       <c r="G68">
-        <v>-3.36</v>
+        <v>9.06</v>
       </c>
       <c r="H68">
-        <v>-0.69</v>
+        <v>12.4</v>
       </c>
       <c r="I68">
-        <v>4.6500000000000004</v>
+        <v>14.4</v>
       </c>
       <c r="J68">
-        <v>31.6</v>
+        <v>20.3</v>
       </c>
       <c r="K68">
-        <v>42.3</v>
+        <v>20.3</v>
       </c>
       <c r="L68">
-        <v>43.1</v>
+        <v>23.1</v>
       </c>
       <c r="M68">
-        <v>36.4</v>
-      </c>
-      <c r="N68">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A69" s="1">
-        <v>67</v>
-      </c>
-      <c r="B69">
-        <v>3033</v>
-      </c>
-      <c r="C69" t="s">
-        <v>65</v>
-      </c>
-      <c r="D69">
-        <v>30</v>
-      </c>
-      <c r="E69">
-        <v>0.17</v>
-      </c>
-      <c r="F69">
-        <v>-3.23</v>
-      </c>
-      <c r="G69">
-        <v>-5.21</v>
-      </c>
-      <c r="H69">
-        <v>-4.46</v>
-      </c>
-      <c r="I69">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J69">
-        <v>15.4</v>
-      </c>
-      <c r="K69">
-        <v>27.1</v>
-      </c>
-      <c r="L69">
-        <v>33</v>
-      </c>
-      <c r="M69">
-        <v>59.6</v>
-      </c>
-      <c r="N69">
-        <v>2</v>
+        <v>84.7</v>
+      </c>
+      <c r="O68">
+        <v>7.23</v>
+      </c>
+      <c r="P68">
+        <v>25.49</v>
+      </c>
+      <c r="R68">
+        <f>O68+P68+Q68</f>
+        <v>32.72</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:R69">
-    <sortCondition ref="R40"/>
+  <sortState ref="A2:S68">
+    <sortCondition descending="1" ref="N1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4023,15 +4281,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068154D9CED6A274799344D73CDDB6092" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5a2665e4f307efafdee1c9405c7148c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" xmlns:ns4="a05e4abd-8455-4909-9372-067b8b6e3dbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb69d6d218e7dc1efa9607e3a9562cb6" ns3:_="" ns4:_="">
     <xsd:import namespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
@@ -4240,6 +4489,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD1C522-C9EE-4918-8E62-07B8615331B6}">
   <ds:schemaRefs>
@@ -4258,14 +4516,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1224F8E3-B117-4CC1-A01B-C7E870A3F236}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE5A80-C520-49F1-8D68-0739C0E45C24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4282,4 +4532,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1224F8E3-B117-4CC1-A01B-C7E870A3F236}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/GoodInfo_StockList_20211118.xlsx
+++ b/GoodInfo_StockList_20211118.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20380"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ray\Documents\Python\GoodInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RayWu\OneDrive - AAEON Technology\_OLD\Documents\Python\TradingModel_GoodInfo_v2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_954F2878EEF234A9C0B006BA18E0511D32EF47D8" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{1DBA6E64-D380-4CC7-BD25-CB1228C4156D}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7440"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19380" windowHeight="7440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>名稱</t>
   </si>
@@ -286,25 +287,13 @@
   </si>
   <si>
     <t>大量_小計</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>v</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -683,25 +672,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S68"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:R68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S1" sqref="S1:S1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
-    <col min="7" max="7" width="8.625" customWidth="1"/>
-    <col min="8" max="8" width="8.25" customWidth="1"/>
-    <col min="9" max="9" width="8.875" customWidth="1"/>
-    <col min="10" max="10" width="10.25" customWidth="1"/>
-    <col min="11" max="11" width="10.5" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="4" max="5" width="0" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="8.25" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="10.25" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="9.875" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>79</v>
       </c>
@@ -754,7 +745,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>38</v>
       </c>
@@ -801,11 +792,11 @@
         <v>3.12</v>
       </c>
       <c r="R2">
-        <f>O2+P2+Q2</f>
+        <f t="shared" ref="R2:R33" si="0">O2+P2+Q2</f>
         <v>3.12</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>14</v>
       </c>
@@ -852,11 +843,11 @@
         <v>3.37</v>
       </c>
       <c r="R3">
-        <f>O3+P3+Q3</f>
+        <f t="shared" si="0"/>
         <v>3.37</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>63</v>
       </c>
@@ -906,11 +897,11 @@
         <v>10.01</v>
       </c>
       <c r="R4">
-        <f>O4+P4+Q4</f>
+        <f t="shared" si="0"/>
         <v>14.69</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>51</v>
       </c>
@@ -957,14 +948,11 @@
         <v>0.7</v>
       </c>
       <c r="R5">
-        <f>O5+P5+Q5</f>
+        <f t="shared" si="0"/>
         <v>0.7</v>
       </c>
-      <c r="S5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>34</v>
       </c>
@@ -1011,14 +999,11 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="R6">
-        <f>O6+P6+Q6</f>
+        <f t="shared" si="0"/>
         <v>1.1000000000000001</v>
       </c>
-      <c r="S6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>55</v>
       </c>
@@ -1065,14 +1050,11 @@
         <v>2.2999999999999998</v>
       </c>
       <c r="R7">
-        <f>O7+P7+Q7</f>
+        <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
-      <c r="S7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>39</v>
       </c>
@@ -1119,14 +1101,11 @@
         <v>3.45</v>
       </c>
       <c r="R8">
-        <f>O8+P8+Q8</f>
+        <f t="shared" si="0"/>
         <v>3.45</v>
       </c>
-      <c r="S8" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>37</v>
       </c>
@@ -1173,14 +1152,11 @@
         <v>3.65</v>
       </c>
       <c r="R9">
-        <f>O9+P9+Q9</f>
+        <f t="shared" si="0"/>
         <v>3.65</v>
       </c>
-      <c r="S9" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>6</v>
       </c>
@@ -1227,14 +1203,11 @@
         <v>3.84</v>
       </c>
       <c r="R10">
-        <f>O10+P10+Q10</f>
+        <f t="shared" si="0"/>
         <v>3.84</v>
       </c>
-      <c r="S10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>12</v>
       </c>
@@ -1281,14 +1254,11 @@
         <v>3.84</v>
       </c>
       <c r="R11">
-        <f>O11+P11+Q11</f>
+        <f t="shared" si="0"/>
         <v>3.84</v>
       </c>
-      <c r="S11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>53</v>
       </c>
@@ -1338,11 +1308,11 @@
         <v>3.44</v>
       </c>
       <c r="R12">
-        <f>O12+P12+Q12</f>
+        <f t="shared" si="0"/>
         <v>5.88</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>9</v>
       </c>
@@ -1392,11 +1362,11 @@
         <v>4.42</v>
       </c>
       <c r="R13">
-        <f>O13+P13+Q13</f>
+        <f t="shared" si="0"/>
         <v>6.7799999999999994</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>18</v>
       </c>
@@ -1443,14 +1413,11 @@
         <v>8</v>
       </c>
       <c r="R14">
-        <f>O14+P14+Q14</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="S14" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>29</v>
       </c>
@@ -1500,11 +1467,11 @@
         <v>5.0199999999999996</v>
       </c>
       <c r="R15">
-        <f>O15+P15+Q15</f>
+        <f t="shared" si="0"/>
         <v>8.18</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>22</v>
       </c>
@@ -1551,11 +1518,11 @@
         <v>9.8000000000000007</v>
       </c>
       <c r="R16">
-        <f>O16+P16+Q16</f>
+        <f t="shared" si="0"/>
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>69</v>
       </c>
@@ -1605,11 +1572,11 @@
         <v>2.84</v>
       </c>
       <c r="R17">
-        <f>O17+P17+Q17</f>
+        <f t="shared" si="0"/>
         <v>6.5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>40</v>
       </c>
@@ -1659,11 +1626,11 @@
         <v>0.9</v>
       </c>
       <c r="R18">
-        <f>O18+P18+Q18</f>
+        <f t="shared" si="0"/>
         <v>7.2600000000000007</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>25</v>
       </c>
@@ -1713,11 +1680,11 @@
         <v>1.57</v>
       </c>
       <c r="R19">
-        <f>O19+P19+Q19</f>
+        <f t="shared" si="0"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>56</v>
       </c>
@@ -1767,11 +1734,11 @@
         <v>9.14</v>
       </c>
       <c r="R20">
-        <f>O20+P20+Q20</f>
+        <f t="shared" si="0"/>
         <v>12.34</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>42</v>
       </c>
@@ -1821,11 +1788,11 @@
         <v>11.53</v>
       </c>
       <c r="R21">
-        <f>O21+P21+Q21</f>
+        <f t="shared" si="0"/>
         <v>15.459999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>31</v>
       </c>
@@ -1875,11 +1842,11 @@
         <v>11.89</v>
       </c>
       <c r="R22">
-        <f>O22+P22+Q22</f>
+        <f t="shared" si="0"/>
         <v>15.75</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>52</v>
       </c>
@@ -1926,14 +1893,11 @@
         <v>1.67</v>
       </c>
       <c r="R23">
-        <f>O23+P23+Q23</f>
+        <f t="shared" si="0"/>
         <v>1.67</v>
       </c>
-      <c r="S23" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2</v>
       </c>
@@ -1980,11 +1944,11 @@
         <v>2.2400000000000002</v>
       </c>
       <c r="R24">
-        <f>O24+P24+Q24</f>
+        <f t="shared" si="0"/>
         <v>2.2400000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43</v>
       </c>
@@ -2031,11 +1995,11 @@
         <v>2.76</v>
       </c>
       <c r="R25">
-        <f>O25+P25+Q25</f>
+        <f t="shared" si="0"/>
         <v>2.76</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>4</v>
       </c>
@@ -2082,11 +2046,11 @@
         <v>3.39</v>
       </c>
       <c r="R26">
-        <f>O26+P26+Q26</f>
+        <f t="shared" si="0"/>
         <v>3.39</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>23</v>
       </c>
@@ -2136,11 +2100,11 @@
         <v>3.42</v>
       </c>
       <c r="R27">
-        <f>O27+P27+Q27</f>
+        <f t="shared" si="0"/>
         <v>6.71</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>21</v>
       </c>
@@ -2187,11 +2151,11 @@
         <v>16.25</v>
       </c>
       <c r="R28">
-        <f>O28+P28+Q28</f>
+        <f t="shared" si="0"/>
         <v>16.25</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>44</v>
       </c>
@@ -2235,11 +2199,11 @@
         <v>3.77</v>
       </c>
       <c r="R29">
-        <f>O29+P29+Q29</f>
+        <f t="shared" si="0"/>
         <v>3.77</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>32</v>
       </c>
@@ -2286,11 +2250,11 @@
         <v>4.8899999999999997</v>
       </c>
       <c r="R30">
-        <f>O30+P30+Q30</f>
+        <f t="shared" si="0"/>
         <v>4.8899999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>20</v>
       </c>
@@ -2340,11 +2304,11 @@
         <v>5.86</v>
       </c>
       <c r="R31">
-        <f>O31+P31+Q31</f>
+        <f t="shared" si="0"/>
         <v>11.57</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -2388,7 +2352,7 @@
         <v>2</v>
       </c>
       <c r="R32">
-        <f>O32+P32+Q32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2436,7 +2400,7 @@
         <v>2</v>
       </c>
       <c r="R33">
-        <f>O33+P33+Q33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -2487,7 +2451,7 @@
         <v>3.16</v>
       </c>
       <c r="R34">
-        <f>O34+P34+Q34</f>
+        <f t="shared" ref="R34:R65" si="1">O34+P34+Q34</f>
         <v>3.16</v>
       </c>
     </row>
@@ -2538,7 +2502,7 @@
         <v>3.42</v>
       </c>
       <c r="R35">
-        <f>O35+P35+Q35</f>
+        <f t="shared" si="1"/>
         <v>3.42</v>
       </c>
     </row>
@@ -2592,7 +2556,7 @@
         <v>2.42</v>
       </c>
       <c r="R36">
-        <f>O36+P36+Q36</f>
+        <f t="shared" si="1"/>
         <v>4.1500000000000004</v>
       </c>
     </row>
@@ -2646,7 +2610,7 @@
         <v>3.34</v>
       </c>
       <c r="R37">
-        <f>O37+P37+Q37</f>
+        <f t="shared" si="1"/>
         <v>6.01</v>
       </c>
     </row>
@@ -2700,7 +2664,7 @@
         <v>1.57</v>
       </c>
       <c r="R38">
-        <f>O38+P38+Q38</f>
+        <f t="shared" si="1"/>
         <v>9.3000000000000007</v>
       </c>
     </row>
@@ -2754,7 +2718,7 @@
         <v>8.18</v>
       </c>
       <c r="R39">
-        <f>O39+P39+Q39</f>
+        <f t="shared" si="1"/>
         <v>10.08</v>
       </c>
     </row>
@@ -2808,7 +2772,7 @@
         <v>8.14</v>
       </c>
       <c r="R40">
-        <f>O40+P40+Q40</f>
+        <f t="shared" si="1"/>
         <v>10.42</v>
       </c>
     </row>
@@ -2859,7 +2823,7 @@
         <v>10.44</v>
       </c>
       <c r="R41">
-        <f>O41+P41+Q41</f>
+        <f t="shared" si="1"/>
         <v>10.44</v>
       </c>
     </row>
@@ -2913,7 +2877,7 @@
         <v>10.75</v>
       </c>
       <c r="R42">
-        <f>O42+P42+Q42</f>
+        <f t="shared" si="1"/>
         <v>13.95</v>
       </c>
     </row>
@@ -2967,7 +2931,7 @@
         <v>12.77</v>
       </c>
       <c r="R43">
-        <f>O43+P43+Q43</f>
+        <f t="shared" si="1"/>
         <v>15.11</v>
       </c>
     </row>
@@ -3021,7 +2985,7 @@
         <v>13.04</v>
       </c>
       <c r="R44">
-        <f>O44+P44+Q44</f>
+        <f t="shared" si="1"/>
         <v>19.619999999999997</v>
       </c>
     </row>
@@ -3075,7 +3039,7 @@
         <v>9.4600000000000009</v>
       </c>
       <c r="R45">
-        <f>O45+P45+Q45</f>
+        <f t="shared" si="1"/>
         <v>20.69</v>
       </c>
     </row>
@@ -3129,7 +3093,7 @@
         <v>11.43</v>
       </c>
       <c r="R46">
-        <f>O46+P46+Q46</f>
+        <f t="shared" si="1"/>
         <v>20.91</v>
       </c>
     </row>
@@ -3186,7 +3150,7 @@
         <v>8.33</v>
       </c>
       <c r="R47">
-        <f>O47+P47+Q47</f>
+        <f t="shared" si="1"/>
         <v>21.02</v>
       </c>
     </row>
@@ -3240,7 +3204,7 @@
         <v>20.14</v>
       </c>
       <c r="R48">
-        <f>O48+P48+Q48</f>
+        <f t="shared" si="1"/>
         <v>22.82</v>
       </c>
     </row>
@@ -3294,7 +3258,7 @@
         <v>19</v>
       </c>
       <c r="R49">
-        <f>O49+P49+Q49</f>
+        <f t="shared" si="1"/>
         <v>22.97</v>
       </c>
     </row>
@@ -3348,7 +3312,7 @@
         <v>21.14</v>
       </c>
       <c r="R50">
-        <f>O50+P50+Q50</f>
+        <f t="shared" si="1"/>
         <v>23.94</v>
       </c>
     </row>
@@ -3402,7 +3366,7 @@
         <v>11.51</v>
       </c>
       <c r="R51">
-        <f>O51+P51+Q51</f>
+        <f t="shared" si="1"/>
         <v>26.41</v>
       </c>
     </row>
@@ -3456,7 +3420,7 @@
         <v>10.210000000000001</v>
       </c>
       <c r="R52">
-        <f>O52+P52+Q52</f>
+        <f t="shared" si="1"/>
         <v>27.16</v>
       </c>
     </row>
@@ -3510,7 +3474,7 @@
         <v>21.04</v>
       </c>
       <c r="R53">
-        <f>O53+P53+Q53</f>
+        <f t="shared" si="1"/>
         <v>32.369999999999997</v>
       </c>
     </row>
@@ -3567,7 +3531,7 @@
         <v>27</v>
       </c>
       <c r="R54">
-        <f>O54+P54+Q54</f>
+        <f t="shared" si="1"/>
         <v>37.269999999999996</v>
       </c>
     </row>
@@ -3624,7 +3588,7 @@
         <v>29.45</v>
       </c>
       <c r="R55">
-        <f>O55+P55+Q55</f>
+        <f t="shared" si="1"/>
         <v>38.79</v>
       </c>
     </row>
@@ -3672,7 +3636,7 @@
         <v>4.17</v>
       </c>
       <c r="R56">
-        <f>O56+P56+Q56</f>
+        <f t="shared" si="1"/>
         <v>4.17</v>
       </c>
     </row>
@@ -3720,7 +3684,7 @@
         <v>4.22</v>
       </c>
       <c r="R57">
-        <f>O57+P57+Q57</f>
+        <f t="shared" si="1"/>
         <v>4.22</v>
       </c>
     </row>
@@ -3768,7 +3732,7 @@
         <v>4.53</v>
       </c>
       <c r="R58">
-        <f>O58+P58+Q58</f>
+        <f t="shared" si="1"/>
         <v>4.53</v>
       </c>
     </row>
@@ -3816,7 +3780,7 @@
         <v>4.55</v>
       </c>
       <c r="R59">
-        <f>O59+P59+Q59</f>
+        <f t="shared" si="1"/>
         <v>4.55</v>
       </c>
     </row>
@@ -3864,7 +3828,7 @@
         <v>6.75</v>
       </c>
       <c r="R60">
-        <f>O60+P60+Q60</f>
+        <f t="shared" si="1"/>
         <v>6.75</v>
       </c>
     </row>
@@ -3912,7 +3876,7 @@
         <v>7.19</v>
       </c>
       <c r="R61">
-        <f>O61+P61+Q61</f>
+        <f t="shared" si="1"/>
         <v>7.19</v>
       </c>
     </row>
@@ -3960,7 +3924,7 @@
         <v>7.26</v>
       </c>
       <c r="R62">
-        <f>O62+P62+Q62</f>
+        <f t="shared" si="1"/>
         <v>7.26</v>
       </c>
     </row>
@@ -4011,7 +3975,7 @@
         <v>5.67</v>
       </c>
       <c r="R63">
-        <f>O63+P63+Q63</f>
+        <f t="shared" si="1"/>
         <v>7.6899999999999995</v>
       </c>
     </row>
@@ -4059,7 +4023,7 @@
         <v>7.94</v>
       </c>
       <c r="R64">
-        <f>O64+P64+Q64</f>
+        <f t="shared" si="1"/>
         <v>7.94</v>
       </c>
     </row>
@@ -4110,7 +4074,7 @@
         <v>9.7200000000000006</v>
       </c>
       <c r="R65">
-        <f>O65+P65+Q65</f>
+        <f t="shared" si="1"/>
         <v>10.57</v>
       </c>
     </row>
@@ -4161,7 +4125,7 @@
         <v>9.0500000000000007</v>
       </c>
       <c r="R66">
-        <f>O66+P66+Q66</f>
+        <f t="shared" ref="R66:R97" si="2">O66+P66+Q66</f>
         <v>11.370000000000001</v>
       </c>
     </row>
@@ -4209,7 +4173,7 @@
         <v>14.95</v>
       </c>
       <c r="R67">
-        <f>O67+P67+Q67</f>
+        <f t="shared" si="2"/>
         <v>14.95</v>
       </c>
     </row>
@@ -4260,12 +4224,12 @@
         <v>25.49</v>
       </c>
       <c r="R68">
-        <f>O68+P68+Q68</f>
+        <f t="shared" si="2"/>
         <v>32.72</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:S68">
+  <sortState ref="A2:R68">
     <sortCondition descending="1" ref="N1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4281,6 +4245,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010068154D9CED6A274799344D73CDDB6092" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d5a2665e4f307efafdee1c9405c7148c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0" xmlns:ns4="a05e4abd-8455-4909-9372-067b8b6e3dbc" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cb69d6d218e7dc1efa9607e3a9562cb6" ns3:_="" ns4:_="">
     <xsd:import namespace="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
@@ -4489,33 +4462,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3FD1C522-C9EE-4918-8E62-07B8615331B6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="a05e4abd-8455-4909-9372-067b8b6e3dbc"/>
     <ds:schemaRef ds:uri="4bb3d3d4-acd0-4d8e-ae87-a4aef309b0b0"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1224F8E3-B117-4CC1-A01B-C7E870A3F236}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CEEE5A80-C520-49F1-8D68-0739C0E45C24}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4532,12 +4504,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1224F8E3-B117-4CC1-A01B-C7E870A3F236}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>